--- a/Samuel-Kings-Chronicles-notes/Kings.xlsx
+++ b/Samuel-Kings-Chronicles-notes/Kings.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="352">
   <si>
     <t>国家</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1200,23 +1200,230 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>以利沙传得胜的应许</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王下 3:13-20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>战胜摩押</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王下 3:21-27</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>12年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王下 3:13-20；王下 5:1-14；王下 6:8-23；王下 7:1-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战胜摩押；战胜亚兰；亚兰围困撒玛利亚；耶和华动摇亚兰军心、解围撒玛利亚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以利沙传得胜的应许；亚兰元帅乃缦长大麻风求助于以色列王、被以利沙医治；以利沙帮助以色列战胜亚兰；以利沙预言撒玛利亚解围</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王下 3:21-27；王下 6:8-23；王下 6:24；王下 7:6-7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以色列王亚哈的女儿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行以色列诸王所行的、与亚哈家一样</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王下 8:18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻打以东战败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王下 8:21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以东背叛犹大；立拿背叛犹大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王下 8:20,22；王下 8:22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王下 8:24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亚哈谢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ahaziah</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>犹大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>约兰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继承</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>耶路撒冷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亚他利雅（以色列王暗利的孙女）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>效法亚哈家行恶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王下 8:27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亚哈家的女儿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联合以色列攻打亚兰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王下 8:28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻打亚兰失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以利沙派人膏耶户为王</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王下 9:1-13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王下 9:21-26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被耶户杀死、尸体被抛在拿伯的田中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被耶户杀死、与列祖同葬在大卫城</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王下 9:27-28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>28年</t>
+  </si>
+  <si>
+    <t>被以利沙膏立、杀死约兰上位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与列祖同睡在撒玛利亚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王下 10:35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王下 9:20-27；王下 10:6-11,15-17；王下 10:12-14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杀死耶洗别；灭尽以色列王亚哈家；灭尽犹大王亚哈谢的弟兄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不离开耶罗波安的罪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灭尽拜巴力的人；拜金牛犊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王下 10:18-28；王下 10:29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>办好耶和华眼中看为正的事</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王下 10:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子孙坐以色列的王位直到四代</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王下 10:29,31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>约哈斯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jehoahaz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以色列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>耶户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亚他利雅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Athaliah</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>犹大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亚哈谢的母亲、剿灭犹大王室篡位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王下 11:1-3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1581,57 +1788,65 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK34"/>
+  <dimension ref="A1:AP35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="V3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="AD3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AG6" sqref="AG6"/>
+      <selection pane="bottomRight" activeCell="AK15" sqref="AK15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.77734375" customWidth="1"/>
-    <col min="2" max="2" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="15.77734375" customWidth="1"/>
-    <col min="5" max="5" width="30.77734375" customWidth="1"/>
-    <col min="6" max="6" width="15.77734375" customWidth="1"/>
-    <col min="7" max="7" width="30.77734375" customWidth="1"/>
-    <col min="8" max="8" width="15.77734375" customWidth="1"/>
-    <col min="9" max="9" width="30.77734375" customWidth="1"/>
-    <col min="10" max="10" width="15.77734375" customWidth="1"/>
-    <col min="11" max="11" width="30.77734375" customWidth="1"/>
-    <col min="12" max="12" width="15.77734375" customWidth="1"/>
-    <col min="13" max="13" width="30.77734375" customWidth="1"/>
-    <col min="14" max="14" width="15.77734375" customWidth="1"/>
-    <col min="15" max="15" width="30.77734375" customWidth="1"/>
-    <col min="16" max="16" width="15.77734375" customWidth="1"/>
-    <col min="17" max="17" width="30.77734375" customWidth="1"/>
-    <col min="18" max="18" width="15.77734375" customWidth="1"/>
-    <col min="19" max="19" width="30.77734375" customWidth="1"/>
-    <col min="20" max="20" width="15.77734375" customWidth="1"/>
-    <col min="21" max="21" width="30.77734375" customWidth="1"/>
-    <col min="22" max="22" width="15.77734375" customWidth="1"/>
-    <col min="23" max="23" width="30.77734375" customWidth="1"/>
-    <col min="24" max="24" width="15.77734375" customWidth="1"/>
-    <col min="25" max="25" width="30.77734375" customWidth="1"/>
-    <col min="26" max="26" width="15.77734375" customWidth="1"/>
-    <col min="27" max="27" width="30.77734375" customWidth="1"/>
-    <col min="28" max="28" width="15.77734375" customWidth="1"/>
-    <col min="29" max="29" width="30.77734375" customWidth="1"/>
-    <col min="30" max="30" width="15.77734375" customWidth="1"/>
-    <col min="31" max="31" width="30.77734375" customWidth="1"/>
-    <col min="32" max="32" width="15.77734375" customWidth="1"/>
-    <col min="33" max="33" width="30.77734375" customWidth="1"/>
-    <col min="34" max="34" width="15.77734375" customWidth="1"/>
-    <col min="35" max="35" width="30.77734375" customWidth="1"/>
-    <col min="36" max="36" width="15.77734375" customWidth="1"/>
-    <col min="37" max="37" width="30.77734375" customWidth="1"/>
-    <col min="38" max="38" width="15.77734375" customWidth="1"/>
+    <col min="1" max="1" width="11.75" customWidth="1"/>
+    <col min="2" max="2" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="15.75" customWidth="1"/>
+    <col min="5" max="5" width="30.75" customWidth="1"/>
+    <col min="6" max="6" width="15.75" customWidth="1"/>
+    <col min="7" max="7" width="30.75" customWidth="1"/>
+    <col min="8" max="8" width="15.75" customWidth="1"/>
+    <col min="9" max="9" width="30.75" customWidth="1"/>
+    <col min="10" max="10" width="15.75" customWidth="1"/>
+    <col min="11" max="11" width="30.75" customWidth="1"/>
+    <col min="12" max="12" width="15.75" customWidth="1"/>
+    <col min="13" max="13" width="30.75" customWidth="1"/>
+    <col min="14" max="14" width="15.75" customWidth="1"/>
+    <col min="15" max="15" width="30.75" customWidth="1"/>
+    <col min="16" max="16" width="15.75" customWidth="1"/>
+    <col min="17" max="17" width="30.75" customWidth="1"/>
+    <col min="18" max="18" width="15.75" customWidth="1"/>
+    <col min="19" max="19" width="30.75" customWidth="1"/>
+    <col min="20" max="20" width="15.75" customWidth="1"/>
+    <col min="21" max="21" width="30.75" customWidth="1"/>
+    <col min="22" max="22" width="15.75" customWidth="1"/>
+    <col min="23" max="23" width="30.75" customWidth="1"/>
+    <col min="24" max="24" width="15.75" customWidth="1"/>
+    <col min="25" max="25" width="30.75" customWidth="1"/>
+    <col min="26" max="26" width="15.75" customWidth="1"/>
+    <col min="27" max="27" width="30.75" customWidth="1"/>
+    <col min="28" max="28" width="15.75" customWidth="1"/>
+    <col min="29" max="29" width="30.75" customWidth="1"/>
+    <col min="30" max="30" width="15.75" customWidth="1"/>
+    <col min="31" max="31" width="30.75" customWidth="1"/>
+    <col min="32" max="32" width="15.75" customWidth="1"/>
+    <col min="33" max="33" width="30.75" customWidth="1"/>
+    <col min="34" max="34" width="15.75" customWidth="1"/>
+    <col min="35" max="35" width="30.75" customWidth="1"/>
+    <col min="36" max="36" width="15.75" customWidth="1"/>
+    <col min="37" max="37" width="30.75" customWidth="1"/>
+    <col min="38" max="38" width="15.75" customWidth="1"/>
+    <col min="39" max="39" width="30.75" customWidth="1"/>
+    <col min="40" max="40" width="15.75" customWidth="1"/>
+    <col min="41" max="41" width="30.75" customWidth="1"/>
+    <col min="42" max="42" width="15.75" customWidth="1"/>
+    <col min="43" max="43" width="30.75" customWidth="1"/>
+    <col min="44" max="44" width="15.75" customWidth="1"/>
+    <col min="45" max="45" width="30.75" customWidth="1"/>
+    <col min="46" max="46" width="15.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:42" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>111</v>
       </c>
@@ -1686,11 +1901,20 @@
       <c r="AG1" s="1" t="s">
         <v>280</v>
       </c>
+      <c r="AI1" s="1" t="s">
+        <v>309</v>
+      </c>
       <c r="AK1" s="1" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="2" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AM1" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="2" spans="1:42" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
@@ -1745,11 +1969,20 @@
       <c r="AG2" s="5" t="s">
         <v>281</v>
       </c>
+      <c r="AI2" s="5" t="s">
+        <v>310</v>
+      </c>
       <c r="AK2" s="5" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="3" spans="1:37" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AM2" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="AO2" s="5" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="3" spans="1:42" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -1803,11 +2036,20 @@
       <c r="AG3" s="6" t="s">
         <v>282</v>
       </c>
+      <c r="AI3" s="6" t="s">
+        <v>311</v>
+      </c>
       <c r="AK3" s="6" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:37" s="6" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="AM3" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="AO3" s="6" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="4" spans="1:42" s="6" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>198</v>
       </c>
@@ -1864,8 +2106,17 @@
       <c r="AG4" s="6" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="5" spans="1:37" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AI4" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="AK4" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="AM4" s="6" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="5" spans="1:42" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>156</v>
       </c>
@@ -1925,8 +2176,20 @@
       <c r="AG5" s="6" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="6" spans="1:37" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AI5" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="AK5" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="AO5" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="AP5" s="6" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="6" spans="1:42" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>17</v>
       </c>
@@ -1974,11 +2237,20 @@
       <c r="AC6" s="6" t="s">
         <v>267</v>
       </c>
+      <c r="AE6" s="6" t="s">
+        <v>300</v>
+      </c>
       <c r="AG6" s="6" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="7" spans="1:37" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>295</v>
+      </c>
+      <c r="AI6" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="AK6" s="6" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="7" spans="1:42" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>10</v>
       </c>
@@ -2003,7 +2275,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="8" spans="1:37" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:42" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>56</v>
       </c>
@@ -2029,8 +2301,14 @@
       <c r="AB8" s="6" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="9" spans="1:37" s="6" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="AK8" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="AL8" s="6" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="9" spans="1:42" s="6" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>48</v>
       </c>
@@ -2100,14 +2378,32 @@
       <c r="AD9" s="6" t="s">
         <v>269</v>
       </c>
+      <c r="AE9" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="AF9" s="6" t="s">
+        <v>303</v>
+      </c>
       <c r="AG9" s="6" t="s">
         <v>289</v>
       </c>
       <c r="AH9" s="6" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="10" spans="1:37" s="6" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="AI9" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="AJ9" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="AK9" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="AL9" s="6" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="10" spans="1:42" s="6" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>140</v>
       </c>
@@ -2195,8 +2491,32 @@
       <c r="AD10" s="6" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="11" spans="1:37" s="6" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="AE10" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="AF10" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="AG10" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="AH10" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="AI10" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="AJ10" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="AK10" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="AL10" s="6" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="11" spans="1:42" s="6" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>8</v>
       </c>
@@ -2215,7 +2535,7 @@
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
     </row>
-    <row r="12" spans="1:37" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:42" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>30</v>
       </c>
@@ -2233,8 +2553,14 @@
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
-    </row>
-    <row r="13" spans="1:37" s="6" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="AK12" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="AL12" s="6" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="13" spans="1:42" s="6" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>57</v>
       </c>
@@ -2275,7 +2601,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="14" spans="1:37" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:42" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>9</v>
       </c>
@@ -2294,7 +2620,7 @@
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
     </row>
-    <row r="15" spans="1:37" s="6" customFormat="1" ht="110.4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:42" s="6" customFormat="1" ht="114" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>68</v>
       </c>
@@ -2331,13 +2657,19 @@
         <v>278</v>
       </c>
       <c r="AG15" s="6" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="AH15" s="6" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="16" spans="1:37" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AK15" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="AL15" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="16" spans="1:42" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -2350,7 +2682,7 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
     </row>
-    <row r="17" spans="1:34" s="6" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:39" s="6" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>51</v>
       </c>
@@ -2400,8 +2732,14 @@
       <c r="AH17" s="6" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="18" spans="1:34" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AK17" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="AL17" s="6" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="18" spans="1:39" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>91</v>
       </c>
@@ -2438,53 +2776,49 @@
         <v>257</v>
       </c>
     </row>
-    <row r="19" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="1:34" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+    <row r="19" spans="1:39" s="6" customFormat="1" ht="57" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="AK19" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="AL19" s="6" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="20" spans="1:39" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="7"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="1:39" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E21" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F21" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="Y20" s="6" t="s">
-        <v>270</v>
-      </c>
-      <c r="Z20" s="6" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="21" spans="1:34" s="6" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
@@ -2494,129 +2828,153 @@
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
-    </row>
-    <row r="22" spans="1:34" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y21" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="Z21" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="AE21" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="AI21" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="AJ21" s="6" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="22" spans="1:39" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+    </row>
+    <row r="23" spans="1:39" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E23" s="2" t="s">
         <v>1</v>
-      </c>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="N22" s="2"/>
-      <c r="O22" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q22" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="S22" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="Y22" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="AA22" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="AC22" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="AE22" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="AG22" s="6" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="23" spans="1:34" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H23" s="2"/>
       <c r="I23" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
+      <c r="K23" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="L23" s="2"/>
       <c r="M23" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="N23" s="2"/>
+      <c r="O23" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q23" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="S23" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="Y23" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="AA23" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="AC23" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="AE23" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="AG23" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="AI23" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="AM23" s="6" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="24" spans="1:39" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="N23" s="2"/>
-      <c r="AA23" s="6" t="s">
+      <c r="N24" s="2"/>
+      <c r="AA24" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="AC23" s="6" t="s">
+      <c r="AC24" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="AG23" s="6" t="s">
+      <c r="AG24" s="6" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="24" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="1:34" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
+      <c r="AI24" s="6" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="25" spans="1:39" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="7"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="1:39" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="E26" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="F26" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
-    </row>
-    <row r="26" spans="1:34" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
@@ -2627,15 +2985,15 @@
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
     </row>
-    <row r="27" spans="1:34" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:39" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
@@ -2646,210 +3004,253 @@
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
     </row>
-    <row r="28" spans="1:34" s="6" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:39" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>77</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
-      <c r="O28" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="P28" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="AA28" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="AB28" s="6" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="29" spans="1:34" s="6" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:39" s="6" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
+        <v>55</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
-    </row>
-    <row r="30" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="7"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="1:34" s="6" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
+      <c r="O29" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="P29" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA29" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="AB29" s="6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="30" spans="1:39" s="6" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+    </row>
+    <row r="31" spans="1:39" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="7"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="1:39" s="6" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A32" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="E32" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="F32" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="J31" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
-    </row>
-    <row r="32" spans="1:34" s="6" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
+      <c r="I32" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
-      <c r="Y32" s="6" t="s">
+    </row>
+    <row r="33" spans="1:36" s="6" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A33" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="Y33" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="Z32" s="6" t="s">
+      <c r="Z33" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="AA32" s="6" t="s">
+      <c r="AA33" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="AB32" s="6" t="s">
+      <c r="AB33" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="AC32" s="6" t="s">
+      <c r="AC33" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="AD32" s="6" t="s">
+      <c r="AD33" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="AG32" s="6" t="s">
+      <c r="AE33" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="AF33" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="AG33" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="AH32" s="6" t="s">
+      <c r="AH33" s="6" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="33" spans="1:34" s="6" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
+      <c r="AI33" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="AJ33" s="6" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="34" spans="1:36" s="6" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A34" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="E34" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F33" s="2" t="s">
+      <c r="F34" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="G33" s="2" t="s">
+      <c r="G34" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="H33" s="2" t="s">
+      <c r="H34" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="I33" s="2" t="s">
+      <c r="I34" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="J33" s="2" t="s">
+      <c r="J34" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="K33" s="2" t="s">
+      <c r="K34" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="L33" s="2" t="s">
+      <c r="L34" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="M33" s="2" t="s">
+      <c r="M34" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="N33" s="2" t="s">
+      <c r="N34" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="O33" s="6" t="s">
+      <c r="O34" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="P33" s="6" t="s">
+      <c r="P34" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="Y33" s="6" t="s">
+      <c r="Y34" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="Z33" s="6" t="s">
+      <c r="Z34" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="AG33" s="6" t="s">
+      <c r="AE34" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="AF34" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="AG34" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="AH33" s="6" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="34" spans="1:34" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
+      <c r="AH34" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="AI34" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="AJ34" s="6" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="35" spans="1:36" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="E35" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F34" s="2" t="s">
+      <c r="F35" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Samuel-Kings-Chronicles-notes/Kings.xlsx
+++ b/Samuel-Kings-Chronicles-notes/Kings.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="516">
   <si>
     <t>国家</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1424,6 +1424,662 @@
   </si>
   <si>
     <t>王下 11:1-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>约阿施</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Joash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王下 11:12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被祭司耶何耶大杀死</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王下 11:15-16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>耶何耶大拆毁巴力庙、打碎坛和像、杀死巴力的祭司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王下 11:17-18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>耶路撒冷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>犹大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西比亚（别是巴人）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亚哈谢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继承（祭司耶何耶大膏约阿施作王）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邱坛没有废去</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王下 12:2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王下 12:3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向百姓收奉献修理圣殿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王下 12:4-16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亚兰攻打犹大、约阿施送财物求和</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王下 12:17-18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被臣仆背叛杀死、与列祖同葬在大卫城</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王下 12:20-21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>耶何耶大在世时行善</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亚玛谢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Amaziah</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>耶路撒冷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继承</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>约阿施</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撒玛利亚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继承</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>效法耶罗波安</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王下 13:2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亚舍拉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王下 13:6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>耶和华屡次将以色列交在亚兰王手中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王下 13:3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亚兰灭绝约哈斯的民</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王下 13:7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与列祖同睡在撒玛利亚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王下 13:9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>约阿施</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以色列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撒玛利亚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>约哈斯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不离开耶罗波安的罪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王下 13:11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与列祖同睡在撒玛利亚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jeroboam</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以色列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撒玛利亚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以利沙去世前预言攻打亚兰得胜三次但不能灭尽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王下 13:14-19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与犹大征战；三次打败亚兰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王下 13:12；王下 13:25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>29年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>约耶但（耶路撒冷人）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行善但不如大卫、效法他父约阿施</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王下 14:3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王下 14:4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杀死背叛其父王的臣仆、但没有杀死臣仆的儿子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王下 14:5-6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王下 14:7；王下 14:8-14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打败以东、攻取西拉；攻打以色列战败被掳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣殿中的金银和器皿被以色列人掳走</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王下 14:14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王下 13:13,王下 14:16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被叛党所杀、葬在列祖的坟地中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王下 14:19-20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亚撒利雅（乌西雅）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Azariah</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>犹大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继承</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>耶罗波安二世</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>41年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王下 14:24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收回以色列边界之地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王下 14:25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与列祖同睡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王下 14:29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撒迦利雅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zachariah</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撒玛利亚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继承</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>耶罗波安二世</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>52年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>效法他父亲亚玛谢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王下 15:3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王下 15:4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>耶和华降灾使他长大麻风</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王下 15:5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与列祖同睡在大卫城</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王下 15:7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jotham</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>约坦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>耶路撒冷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继承</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亚撒利雅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>效法列祖、不离开耶罗波安的罪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王下 15:9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被沙龙背叛击杀篡位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王下 15:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙龙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shallum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以色列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撒玛利亚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>篡位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雅比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被米拿杀死篡位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王下 15:14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>米拿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Menahem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>迦底</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以色列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撒玛利亚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>篡位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不离开耶罗波安的罪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王下 15:18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被亚述攻打、送财物求和</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王下 15:19-20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比加辖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与列祖同睡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王下 15:22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pekahiah</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以色列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继承</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>米拿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王下 15:24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被将军比加杀死篡位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王下 15:25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pekah</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撒玛利亚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>篡位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王下 15:28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利玛利</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被亚述攻打、夺地、百姓被掳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王下 15:29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被何细亚背叛杀死篡位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王下 15:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>耶路沙（撒督的女儿）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>效法他父亲乌西雅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王下 15:34</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王下 15:35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建立耶和华殿的上门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被亚兰和以色列攻打</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王下 15:37</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与列祖同睡在大卫城</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王下 15:38</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亚哈斯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ahaz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>犹大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>耶路撒冷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继承</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>约坦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16年</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1788,13 +2444,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AP35"/>
+  <dimension ref="A1:BM35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="AD3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="BD3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AK15" sqref="AK15"/>
+      <selection pane="bottomRight" activeCell="BM10" sqref="BM10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1844,9 +2500,31 @@
     <col min="44" max="44" width="15.75" customWidth="1"/>
     <col min="45" max="45" width="30.75" customWidth="1"/>
     <col min="46" max="46" width="15.75" customWidth="1"/>
+    <col min="47" max="47" width="30.75" customWidth="1"/>
+    <col min="48" max="48" width="15.75" customWidth="1"/>
+    <col min="49" max="49" width="30.75" customWidth="1"/>
+    <col min="50" max="50" width="15.75" customWidth="1"/>
+    <col min="51" max="51" width="30.75" customWidth="1"/>
+    <col min="52" max="52" width="15.75" customWidth="1"/>
+    <col min="53" max="53" width="30.75" customWidth="1"/>
+    <col min="54" max="54" width="15.75" customWidth="1"/>
+    <col min="55" max="55" width="30.75" customWidth="1"/>
+    <col min="56" max="56" width="15.75" customWidth="1"/>
+    <col min="57" max="57" width="30.75" customWidth="1"/>
+    <col min="58" max="58" width="15.75" customWidth="1"/>
+    <col min="59" max="59" width="30.75" customWidth="1"/>
+    <col min="60" max="60" width="15.75" customWidth="1"/>
+    <col min="61" max="61" width="30.75" customWidth="1"/>
+    <col min="62" max="62" width="15.75" customWidth="1"/>
+    <col min="63" max="63" width="30.75" customWidth="1"/>
+    <col min="64" max="64" width="15.75" customWidth="1"/>
+    <col min="65" max="65" width="30.75" customWidth="1"/>
+    <col min="66" max="66" width="15.75" customWidth="1"/>
+    <col min="67" max="67" width="30.75" customWidth="1"/>
+    <col min="68" max="68" width="15.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:65" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>111</v>
       </c>
@@ -1913,8 +2591,44 @@
       <c r="AO1" s="1" t="s">
         <v>347</v>
       </c>
+      <c r="AQ1" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>509</v>
+      </c>
     </row>
-    <row r="2" spans="1:42" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:65" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
@@ -1981,8 +2695,44 @@
       <c r="AO2" s="5" t="s">
         <v>348</v>
       </c>
+      <c r="AQ2" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="AS2" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="AU2" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="AW2" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="AY2" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="BA2" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="BC2" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="BE2" s="5" t="s">
+        <v>458</v>
+      </c>
+      <c r="BG2" s="5" t="s">
+        <v>467</v>
+      </c>
+      <c r="BI2" s="5" t="s">
+        <v>480</v>
+      </c>
+      <c r="BK2" s="5" t="s">
+        <v>489</v>
+      </c>
+      <c r="BM2" s="5" t="s">
+        <v>510</v>
+      </c>
     </row>
-    <row r="3" spans="1:42" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:65" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -2048,8 +2798,44 @@
       <c r="AO3" s="6" t="s">
         <v>349</v>
       </c>
+      <c r="AQ3" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="AS3" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="AU3" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="AW3" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="AY3" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="BA3" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="BC3" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="BE3" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="BG3" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="BI3" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="BK3" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="BM3" s="6" t="s">
+        <v>511</v>
+      </c>
     </row>
-    <row r="4" spans="1:42" s="6" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:65" s="6" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>198</v>
       </c>
@@ -2110,13 +2896,52 @@
         <v>314</v>
       </c>
       <c r="AK4" s="6" t="s">
-        <v>314</v>
+        <v>381</v>
       </c>
       <c r="AM4" s="6" t="s">
-        <v>314</v>
+        <v>204</v>
+      </c>
+      <c r="AO4" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="AQ4" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="AS4" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="AU4" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="AW4" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="AY4" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="BA4" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="BC4" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="BE4" s="6" t="s">
+        <v>460</v>
+      </c>
+      <c r="BG4" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="BI4" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="BK4" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="BM4" s="6" t="s">
+        <v>512</v>
       </c>
     </row>
-    <row r="5" spans="1:42" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:65" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>156</v>
       </c>
@@ -2182,14 +3007,56 @@
       <c r="AK5" s="6" t="s">
         <v>330</v>
       </c>
+      <c r="AM5" s="6" t="s">
+        <v>383</v>
+      </c>
       <c r="AO5" s="6" t="s">
         <v>350</v>
       </c>
       <c r="AP5" s="6" t="s">
         <v>351</v>
       </c>
+      <c r="AQ5" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="AR5" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="AS5" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="AU5" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="AW5" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="AY5" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="BA5" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="BC5" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="BE5" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="BG5" s="6" t="s">
+        <v>471</v>
+      </c>
+      <c r="BI5" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="BK5" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="BM5" s="6" t="s">
+        <v>513</v>
+      </c>
     </row>
-    <row r="6" spans="1:42" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:65" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>17</v>
       </c>
@@ -2249,8 +3116,50 @@
       <c r="AK6" s="6" t="s">
         <v>329</v>
       </c>
+      <c r="AM6" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="AO6" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="AQ6" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="AS6" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="AU6" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="AW6" s="6" t="s">
+        <v>428</v>
+      </c>
+      <c r="AY6" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="BA6" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="BC6" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="BE6" s="6" t="s">
+        <v>463</v>
+      </c>
+      <c r="BG6" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="BI6" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="BK6" s="6" t="s">
+        <v>492</v>
+      </c>
+      <c r="BM6" s="6" t="s">
+        <v>515</v>
+      </c>
     </row>
-    <row r="7" spans="1:42" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:65" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>10</v>
       </c>
@@ -2275,7 +3184,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="8" spans="1:42" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:65" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>56</v>
       </c>
@@ -2307,8 +3216,32 @@
       <c r="AL8" s="6" t="s">
         <v>340</v>
       </c>
+      <c r="AQ8" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="AR8" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="AS8" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="AT8" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="AY8" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="AZ8" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="BC8" s="6" t="s">
+        <v>501</v>
+      </c>
+      <c r="BD8" s="6" t="s">
+        <v>502</v>
+      </c>
     </row>
-    <row r="9" spans="1:42" s="6" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:65" s="6" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>48</v>
       </c>
@@ -2402,8 +3335,50 @@
       <c r="AL9" s="6" t="s">
         <v>342</v>
       </c>
+      <c r="AM9" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="AN9" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="AU9" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="AV9" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="AW9" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="AX9" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="BA9" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="BB9" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="BG9" s="6" t="s">
+        <v>473</v>
+      </c>
+      <c r="BH9" s="6" t="s">
+        <v>474</v>
+      </c>
+      <c r="BI9" s="6" t="s">
+        <v>473</v>
+      </c>
+      <c r="BJ9" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="BK9" s="6" t="s">
+        <v>473</v>
+      </c>
+      <c r="BL9" s="6" t="s">
+        <v>493</v>
+      </c>
     </row>
-    <row r="10" spans="1:42" s="6" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:65" s="6" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>140</v>
       </c>
@@ -2515,8 +3490,86 @@
       <c r="AL10" s="6" t="s">
         <v>332</v>
       </c>
+      <c r="AM10" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="AN10" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="AO10" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="AP10" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="AQ10" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="AR10" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="AS10" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="AT10" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="AU10" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="AV10" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="AW10" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="AX10" s="6" t="s">
+        <v>433</v>
+      </c>
+      <c r="AY10" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="AZ10" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="BA10" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="BB10" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="BC10" s="6" t="s">
+        <v>507</v>
+      </c>
+      <c r="BD10" s="6" t="s">
+        <v>508</v>
+      </c>
+      <c r="BE10" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="BF10" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="BG10" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="BH10" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="BI10" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="BJ10" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="BK10" s="6" t="s">
+        <v>497</v>
+      </c>
+      <c r="BL10" s="6" t="s">
+        <v>498</v>
+      </c>
     </row>
-    <row r="11" spans="1:42" s="6" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:65" s="6" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>8</v>
       </c>
@@ -2535,7 +3588,7 @@
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
     </row>
-    <row r="12" spans="1:42" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:65" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>30</v>
       </c>
@@ -2560,7 +3613,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="13" spans="1:42" s="6" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:65" s="6" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>57</v>
       </c>
@@ -2600,8 +3653,20 @@
       <c r="AD13" s="6" t="s">
         <v>277</v>
       </c>
+      <c r="AM13" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="AN13" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="AY13" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="AZ13" s="6" t="s">
+        <v>444</v>
+      </c>
     </row>
-    <row r="14" spans="1:42" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:65" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>9</v>
       </c>
@@ -2620,7 +3685,7 @@
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
     </row>
-    <row r="15" spans="1:42" s="6" customFormat="1" ht="114" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:65" s="6" customFormat="1" ht="114" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>68</v>
       </c>
@@ -2668,8 +3733,14 @@
       <c r="AL15" s="6" t="s">
         <v>324</v>
       </c>
+      <c r="AU15" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="AV15" s="6" t="s">
+        <v>406</v>
+      </c>
     </row>
-    <row r="16" spans="1:42" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:65" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -2682,7 +3753,7 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
     </row>
-    <row r="17" spans="1:39" s="6" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:65" s="6" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>51</v>
       </c>
@@ -2738,8 +3809,20 @@
       <c r="AL17" s="6" t="s">
         <v>338</v>
       </c>
+      <c r="AM17" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="AN17" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="AQ17" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="AR17" s="6" t="s">
+        <v>358</v>
+      </c>
     </row>
-    <row r="18" spans="1:39" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:65" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>91</v>
       </c>
@@ -2776,7 +3859,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="19" spans="1:39" s="6" customFormat="1" ht="57" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:65" s="6" customFormat="1" ht="57" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>333</v>
       </c>
@@ -2796,8 +3879,14 @@
       <c r="AL19" s="6" t="s">
         <v>334</v>
       </c>
+      <c r="AS19" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="AT19" s="6" t="s">
+        <v>415</v>
+      </c>
     </row>
-    <row r="20" spans="1:39" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:65" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="7"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -2810,7 +3899,7 @@
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
     </row>
-    <row r="21" spans="1:39" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:65" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>44</v>
       </c>
@@ -2844,7 +3933,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="22" spans="1:39" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:65" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>45</v>
       </c>
@@ -2863,7 +3952,7 @@
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
     </row>
-    <row r="23" spans="1:39" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:65" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>62</v>
       </c>
@@ -2917,8 +4006,44 @@
       <c r="AM23" s="6" t="s">
         <v>346</v>
       </c>
+      <c r="AQ23" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="AS23" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="AU23" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="AW23" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="AY23" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="BA23" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="BC23" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="BE23" s="6" t="s">
+        <v>462</v>
+      </c>
+      <c r="BG23" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="BI23" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="BK23" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="BM23" s="6" t="s">
+        <v>514</v>
+      </c>
     </row>
-    <row r="24" spans="1:39" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:65" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>63</v>
       </c>
@@ -2952,8 +4077,17 @@
       <c r="AI24" s="6" t="s">
         <v>316</v>
       </c>
+      <c r="AQ24" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="AS24" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="BC24" s="6" t="s">
+        <v>500</v>
+      </c>
     </row>
-    <row r="25" spans="1:39" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:65" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="7"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
@@ -2966,7 +4100,7 @@
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
     </row>
-    <row r="26" spans="1:39" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:65" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>20</v>
       </c>
@@ -2985,7 +4119,7 @@
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
     </row>
-    <row r="27" spans="1:39" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:65" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>21</v>
       </c>
@@ -3003,8 +4137,26 @@
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
+      <c r="AQ27" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="AR27" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="AS27" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="AT27" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="BC27" s="6" t="s">
+        <v>504</v>
+      </c>
+      <c r="BD27" s="6" t="s">
+        <v>503</v>
+      </c>
     </row>
-    <row r="28" spans="1:39" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:65" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>14</v>
       </c>
@@ -3023,7 +4175,7 @@
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
     </row>
-    <row r="29" spans="1:39" s="6" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:65" s="6" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>6</v>
       </c>
@@ -3057,8 +4209,32 @@
       <c r="AB29" s="6" t="s">
         <v>253</v>
       </c>
+      <c r="AQ29" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="AR29" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="AS29" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="AT29" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="AY29" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="AZ29" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="BC29" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="BD29" s="6" t="s">
+        <v>503</v>
+      </c>
     </row>
-    <row r="30" spans="1:39" s="6" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:65" s="6" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>7</v>
       </c>
@@ -3077,7 +4253,7 @@
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
     </row>
-    <row r="31" spans="1:39" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:65" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="7"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
@@ -3090,7 +4266,7 @@
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
     </row>
-    <row r="32" spans="1:39" s="6" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:65" s="6" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>25</v>
       </c>
@@ -3113,7 +4289,7 @@
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
     </row>
-    <row r="33" spans="1:36" s="6" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:64" s="6" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>35</v>
       </c>
@@ -3168,7 +4344,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="34" spans="1:36" s="6" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:64" s="6" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>36</v>
       </c>
@@ -3232,8 +4408,56 @@
       <c r="AJ34" s="6" t="s">
         <v>321</v>
       </c>
+      <c r="AM34" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="AN34" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="AQ34" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="AR34" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="AS34" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="AT34" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="AU34" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="AV34" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="AW34" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="AX34" s="6" t="s">
+        <v>431</v>
+      </c>
+      <c r="BC34" s="6" t="s">
+        <v>505</v>
+      </c>
+      <c r="BD34" s="6" t="s">
+        <v>506</v>
+      </c>
+      <c r="BG34" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="BH34" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="BK34" s="6" t="s">
+        <v>495</v>
+      </c>
+      <c r="BL34" s="6" t="s">
+        <v>496</v>
+      </c>
     </row>
-    <row r="35" spans="1:36" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>41</v>
       </c>

--- a/Samuel-Kings-Chronicles-notes/Kings.xlsx
+++ b/Samuel-Kings-Chronicles-notes/Kings.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="577">
   <si>
     <t>国家</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2080,6 +2080,250 @@
   </si>
   <si>
     <t>16年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不像他祖大卫、却效法以色列诸王</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王下 16:2-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在邱坛上、山冈上、各青翠树下献祭烧香</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王下 16:4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王下 16:5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被亚兰和以色列攻打、围困</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>送财务给亚述王求助</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王下 16:7-9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>照外邦人行可憎的、使儿子经火；命令祭司按照亚述的大马士革的坛的样式建坛、并献祭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王下 16:3；王下 16:10-13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动、改变耶和华殿中的铜坛、盆座、铜海、廊子等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王下 16:14-18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与列祖同睡在大卫城</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王下 16:20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>希西家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hezekiah</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>犹大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>耶路撒冷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继承</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亚哈斯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>何细亚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hoshea</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以拉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以色列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撒玛利亚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>篡位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行恶、只是不像在他以前的以色列诸王</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王下 17:2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背叛亚述、寻求埃及的帮助</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王下 17:4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被亚述攻打、投降进贡；被亚述围困、攻取撒玛利亚，百姓被掳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王下 17:3；王下 17:5-6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亚比（撒迦利雅的女儿）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>29年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>效法他祖大卫一切所行的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王下 18:3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毁坏柱像，砍下木偶，打碎摩西所造的铜蛇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>废去邱坛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王下 18:4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>依靠耶和华、在他前后的犹大列王中没有一个及他的、谨守耶和华的诫命</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王下 18:5-6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背叛亚述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王下 18:7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击并战胜非利士人；被亚述攻打、犹大求和；亚述围困耶路撒冷并亵渎耶和华；耶和华的使者击杀亚述军</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王下 18:8；王下 18:13-16；王下 18:17-35；王下 19:35-37</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>求耶和华拯救犹大脱离亚述；求耶和华纪念其心和所行的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王下 19:14-19；王下 20:2-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>希西家求问以赛亚、以赛亚预言亚述败退；以赛亚传耶和华的应许拯救犹大；希西家得病要死、祷告求问耶和华，以赛亚传耶和华的应许要医治希西家并救耶路撒冷脱离亚述；希西家把财宝展示给巴比伦的使者、以赛亚预言财宝和百姓被掳至巴比伦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王下 19:1-7；王下 19:20-34；王下 20:1-11；王下 20:12-19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与列祖同睡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王下 20:21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玛拿西</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Manasseh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>耶路撒冷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继承</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>希西家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>55年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>协西巴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行恶、效法外邦人行可憎的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王下 21:2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2444,13 +2688,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BM35"/>
+  <dimension ref="A1:BT35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="BD3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="BJ3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="BM10" sqref="BM10"/>
+      <selection pane="bottomRight" activeCell="BS12" sqref="BS12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2522,9 +2766,15 @@
     <col min="66" max="66" width="15.75" customWidth="1"/>
     <col min="67" max="67" width="30.75" customWidth="1"/>
     <col min="68" max="68" width="15.75" customWidth="1"/>
+    <col min="69" max="69" width="30.75" customWidth="1"/>
+    <col min="70" max="70" width="15.75" customWidth="1"/>
+    <col min="71" max="71" width="30.75" customWidth="1"/>
+    <col min="72" max="72" width="15.75" customWidth="1"/>
+    <col min="73" max="73" width="30.75" customWidth="1"/>
+    <col min="74" max="74" width="15.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:65" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>111</v>
       </c>
@@ -2627,8 +2877,17 @@
       <c r="BM1" s="1" t="s">
         <v>509</v>
       </c>
+      <c r="BO1" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>568</v>
+      </c>
     </row>
-    <row r="2" spans="1:65" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:72" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
@@ -2731,8 +2990,17 @@
       <c r="BM2" s="5" t="s">
         <v>510</v>
       </c>
+      <c r="BO2" s="5" t="s">
+        <v>531</v>
+      </c>
+      <c r="BQ2" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="BS2" s="5" t="s">
+        <v>569</v>
+      </c>
     </row>
-    <row r="3" spans="1:65" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:72" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -2834,8 +3102,17 @@
       <c r="BM3" s="6" t="s">
         <v>511</v>
       </c>
+      <c r="BO3" s="6" t="s">
+        <v>532</v>
+      </c>
+      <c r="BQ3" s="6" t="s">
+        <v>539</v>
+      </c>
+      <c r="BS3" s="6" t="s">
+        <v>532</v>
+      </c>
     </row>
-    <row r="4" spans="1:65" s="6" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:72" s="6" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>198</v>
       </c>
@@ -2940,8 +3217,17 @@
       <c r="BM4" s="6" t="s">
         <v>512</v>
       </c>
+      <c r="BO4" s="6" t="s">
+        <v>533</v>
+      </c>
+      <c r="BQ4" s="6" t="s">
+        <v>540</v>
+      </c>
+      <c r="BS4" s="6" t="s">
+        <v>570</v>
+      </c>
     </row>
-    <row r="5" spans="1:65" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:72" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>156</v>
       </c>
@@ -3055,8 +3341,17 @@
       <c r="BM5" s="6" t="s">
         <v>513</v>
       </c>
+      <c r="BO5" s="6" t="s">
+        <v>534</v>
+      </c>
+      <c r="BQ5" s="6" t="s">
+        <v>541</v>
+      </c>
+      <c r="BS5" s="6" t="s">
+        <v>571</v>
+      </c>
     </row>
-    <row r="6" spans="1:65" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:72" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>17</v>
       </c>
@@ -3158,8 +3453,17 @@
       <c r="BM6" s="6" t="s">
         <v>515</v>
       </c>
+      <c r="BO6" s="6" t="s">
+        <v>550</v>
+      </c>
+      <c r="BQ6" s="6" t="s">
+        <v>542</v>
+      </c>
+      <c r="BS6" s="6" t="s">
+        <v>573</v>
+      </c>
     </row>
-    <row r="7" spans="1:65" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:72" s="6" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>10</v>
       </c>
@@ -3183,8 +3487,14 @@
       <c r="P7" s="6" t="s">
         <v>134</v>
       </c>
+      <c r="BO7" s="6" t="s">
+        <v>556</v>
+      </c>
+      <c r="BP7" s="6" t="s">
+        <v>557</v>
+      </c>
     </row>
-    <row r="8" spans="1:65" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:72" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>56</v>
       </c>
@@ -3240,8 +3550,14 @@
       <c r="BD8" s="6" t="s">
         <v>502</v>
       </c>
+      <c r="BO8" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="BP8" s="6" t="s">
+        <v>552</v>
+      </c>
     </row>
-    <row r="9" spans="1:65" s="6" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:72" s="6" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>48</v>
       </c>
@@ -3377,8 +3693,26 @@
       <c r="BL9" s="6" t="s">
         <v>493</v>
       </c>
+      <c r="BM9" s="6" t="s">
+        <v>516</v>
+      </c>
+      <c r="BN9" s="6" t="s">
+        <v>517</v>
+      </c>
+      <c r="BQ9" s="6" t="s">
+        <v>543</v>
+      </c>
+      <c r="BR9" s="6" t="s">
+        <v>544</v>
+      </c>
+      <c r="BS9" s="6" t="s">
+        <v>575</v>
+      </c>
+      <c r="BT9" s="6" t="s">
+        <v>576</v>
+      </c>
     </row>
-    <row r="10" spans="1:65" s="6" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:72" s="6" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>140</v>
       </c>
@@ -3568,8 +3902,20 @@
       <c r="BL10" s="6" t="s">
         <v>498</v>
       </c>
+      <c r="BM10" s="6" t="s">
+        <v>528</v>
+      </c>
+      <c r="BN10" s="6" t="s">
+        <v>529</v>
+      </c>
+      <c r="BO10" s="6" t="s">
+        <v>566</v>
+      </c>
+      <c r="BP10" s="6" t="s">
+        <v>567</v>
+      </c>
     </row>
-    <row r="11" spans="1:65" s="6" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:72" s="6" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>8</v>
       </c>
@@ -3588,7 +3934,7 @@
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
     </row>
-    <row r="12" spans="1:65" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:72" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>30</v>
       </c>
@@ -3613,7 +3959,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="13" spans="1:65" s="6" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:72" s="6" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>57</v>
       </c>
@@ -3666,7 +4012,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="14" spans="1:65" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:72" s="6" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>9</v>
       </c>
@@ -3684,8 +4030,14 @@
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
+      <c r="BO14" s="6" t="s">
+        <v>562</v>
+      </c>
+      <c r="BP14" s="6" t="s">
+        <v>563</v>
+      </c>
     </row>
-    <row r="15" spans="1:65" s="6" customFormat="1" ht="114" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:72" s="6" customFormat="1" ht="114" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>68</v>
       </c>
@@ -3739,8 +4091,14 @@
       <c r="AV15" s="6" t="s">
         <v>406</v>
       </c>
+      <c r="BO15" s="6" t="s">
+        <v>564</v>
+      </c>
+      <c r="BP15" s="6" t="s">
+        <v>565</v>
+      </c>
     </row>
-    <row r="16" spans="1:65" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:72" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -3753,7 +4111,7 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
     </row>
-    <row r="17" spans="1:65" s="6" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:71" s="6" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>51</v>
       </c>
@@ -3821,8 +4179,14 @@
       <c r="AR17" s="6" t="s">
         <v>358</v>
       </c>
+      <c r="BO17" s="6" t="s">
+        <v>553</v>
+      </c>
+      <c r="BP17" s="6" t="s">
+        <v>555</v>
+      </c>
     </row>
-    <row r="18" spans="1:65" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:71" s="6" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>91</v>
       </c>
@@ -3858,8 +4222,14 @@
       <c r="AB18" s="6" t="s">
         <v>257</v>
       </c>
+      <c r="BM18" s="6" t="s">
+        <v>524</v>
+      </c>
+      <c r="BN18" s="6" t="s">
+        <v>525</v>
+      </c>
     </row>
-    <row r="19" spans="1:65" s="6" customFormat="1" ht="57" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:71" s="6" customFormat="1" ht="57" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>333</v>
       </c>
@@ -3886,7 +4256,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="20" spans="1:65" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:71" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="7"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -3899,7 +4269,7 @@
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
     </row>
-    <row r="21" spans="1:65" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:71" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>44</v>
       </c>
@@ -3933,7 +4303,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="22" spans="1:65" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:71" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>45</v>
       </c>
@@ -3952,7 +4322,7 @@
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
     </row>
-    <row r="23" spans="1:65" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:71" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>62</v>
       </c>
@@ -4042,8 +4412,17 @@
       <c r="BM23" s="6" t="s">
         <v>514</v>
       </c>
+      <c r="BO23" s="6" t="s">
+        <v>535</v>
+      </c>
+      <c r="BQ23" s="6" t="s">
+        <v>538</v>
+      </c>
+      <c r="BS23" s="6" t="s">
+        <v>572</v>
+      </c>
     </row>
-    <row r="24" spans="1:65" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:71" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>63</v>
       </c>
@@ -4086,8 +4465,14 @@
       <c r="BC24" s="6" t="s">
         <v>500</v>
       </c>
+      <c r="BO24" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="BS24" s="6" t="s">
+        <v>574</v>
+      </c>
     </row>
-    <row r="25" spans="1:65" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:71" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="7"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
@@ -4100,7 +4485,7 @@
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
     </row>
-    <row r="26" spans="1:65" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:71" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>20</v>
       </c>
@@ -4119,7 +4504,7 @@
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
     </row>
-    <row r="27" spans="1:65" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:71" s="6" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>21</v>
       </c>
@@ -4155,8 +4540,14 @@
       <c r="BD27" s="6" t="s">
         <v>503</v>
       </c>
+      <c r="BM27" s="6" t="s">
+        <v>526</v>
+      </c>
+      <c r="BN27" s="6" t="s">
+        <v>527</v>
+      </c>
     </row>
-    <row r="28" spans="1:65" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:71" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>14</v>
       </c>
@@ -4175,7 +4566,7 @@
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
     </row>
-    <row r="29" spans="1:65" s="6" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:71" s="6" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>6</v>
       </c>
@@ -4233,8 +4624,20 @@
       <c r="BD29" s="6" t="s">
         <v>503</v>
       </c>
+      <c r="BM29" s="6" t="s">
+        <v>518</v>
+      </c>
+      <c r="BN29" s="6" t="s">
+        <v>519</v>
+      </c>
+      <c r="BO29" s="6" t="s">
+        <v>554</v>
+      </c>
+      <c r="BP29" s="6" t="s">
+        <v>555</v>
+      </c>
     </row>
-    <row r="30" spans="1:65" s="6" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:71" s="6" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>7</v>
       </c>
@@ -4253,7 +4656,7 @@
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
     </row>
-    <row r="31" spans="1:65" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:71" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="7"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
@@ -4266,7 +4669,7 @@
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
     </row>
-    <row r="32" spans="1:65" s="6" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:71" s="6" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>25</v>
       </c>
@@ -4289,7 +4692,7 @@
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
     </row>
-    <row r="33" spans="1:64" s="6" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:70" s="6" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>35</v>
       </c>
@@ -4343,8 +4746,26 @@
       <c r="AJ33" s="6" t="s">
         <v>321</v>
       </c>
+      <c r="BM33" s="6" t="s">
+        <v>522</v>
+      </c>
+      <c r="BN33" s="6" t="s">
+        <v>523</v>
+      </c>
+      <c r="BO33" s="6" t="s">
+        <v>558</v>
+      </c>
+      <c r="BP33" s="6" t="s">
+        <v>559</v>
+      </c>
+      <c r="BQ33" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="BR33" s="6" t="s">
+        <v>546</v>
+      </c>
     </row>
-    <row r="34" spans="1:64" s="6" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:70" s="6" customFormat="1" ht="57" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>36</v>
       </c>
@@ -4456,8 +4877,26 @@
       <c r="BL34" s="6" t="s">
         <v>496</v>
       </c>
+      <c r="BM34" s="6" t="s">
+        <v>521</v>
+      </c>
+      <c r="BN34" s="6" t="s">
+        <v>520</v>
+      </c>
+      <c r="BO34" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="BP34" s="6" t="s">
+        <v>561</v>
+      </c>
+      <c r="BQ34" s="6" t="s">
+        <v>547</v>
+      </c>
+      <c r="BR34" s="6" t="s">
+        <v>548</v>
+      </c>
     </row>
-    <row r="35" spans="1:64" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:70" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>41</v>
       </c>

--- a/Samuel-Kings-Chronicles-notes/Kings.xlsx
+++ b/Samuel-Kings-Chronicles-notes/Kings.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="577">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="695">
   <si>
     <t>国家</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -580,10 +580,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>死亡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>与列祖同睡</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -728,10 +724,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>耶和华对巴沙家的咒诅临到先知耶户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2年</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2319,11 +2311,491 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>行恶、效法外邦人行可憎的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王下 21:2</t>
+    <t>耶和华对巴沙家的咒诅临到先知耶户（哈拿尼的儿子）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>约沙法（宁示的儿子）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重筑邱坛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王下 21:3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为巴力筑坛、做亚舍拉像、敬拜侍奉天上的万象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王下 21:3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使他的儿子经火，又观兆，用法术，立交鬼的和行巫术的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王下 21:6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在殿中和殿的两院中筑坛；在殿内立雕刻的亚舍拉像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王下 21:4；王下 21:7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行恶、效法外邦人行可憎的；玛拿西引诱以色列人行恶比耶和华所灭的列国更甚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王下 21:2；王下 21:9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>耶和华定意降祸于耶路撒冷、使百姓被掳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王下 21:10-15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>耶和华藉众先知传咒诅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王下 21:10-15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与列祖同睡，葬在自己宫院乌撒的园内</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王下 21:18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亚们</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Amon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>犹大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>耶路撒冷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继承</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玛拿西</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>米舒利密（约提巴人哈鲁斯的女儿）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与他父亲所行的一样</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王下 21:20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敬奉他父亲所敬奉的偶像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王下 21:21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被臣仆背叛杀害；葬在乌撒的园内</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王下 21:23；王下 21:26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>约西亚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Josiah</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>犹大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>耶路撒冷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继承（国民杀死叛臣、拥立约西亚）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王下 21:24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亚们</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>31年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>耶底大（波斯加人亚大雅的女儿）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行他祖大卫一切所行的、不偏左右</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王下 22:2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王下 22:14-20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>女先知户勒大传耶和华的应允，约西亚必平安去世、不亲眼见灾祸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>约西亚将律法书念给百姓听、并与耶和华立约要遵守诫命</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王下 23:1-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拆毁邱坛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王下 23:8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拆毁娈童的屋子、为亚舍拉织帐子的屋子；禁止人使儿女经火献给摩洛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王下 23:7；王下 23:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修理耶和华的殿；拆毁玛拿西在耶和华殿两院中所筑的坛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王下 22:3-7；王下 23:12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拆毁为巴力、亚舍拉、天上万象所造的像和器皿，废去相应的祭司；污秽、废去各样的偶像；拆毁并污秽耶罗波安在伯特利建的坛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王下 23:4-6；王下 23:10-14；王下 23:15-16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重新发现律法书、悔改；约西亚守逾越节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王下 22:8-13；王下 23:21-23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在约西亚以前和以后都没有王像他归向耶和华并遵行律法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王下 23:25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王下 23:29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被埃及攻打、约西亚被杀害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被埃及王杀害、葬在耶路撒冷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王下 23:29-30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>约哈斯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jehoahaz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>犹大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>耶路撒冷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继承（约西亚被杀后、国民膏立约哈斯）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王下 23:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>约西亚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈慕他（立拿人耶利米的女儿）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>效法他列祖一切所行的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王下 23:32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被法老囚禁、死在埃及</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王下 23:33-34</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被法老所立</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>犹大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>耶路撒冷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jehoiakim（Eliakim）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>约西亚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西布大（鲁玛人毗大雅的女儿）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王下 23:37</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被巴比伦占领、被迦勒底军、亚兰军、摩押军、亚扪军攻打毁灭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王下 24:1-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向埃及贡献金银；服侍巴比伦三年后背叛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王下 23:35；王下 24:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与列祖同睡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王下 24:6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>约雅斤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jehoiachin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>犹大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>耶路撒冷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继承</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>约雅敬（原名以利亚敬）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>约雅敬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尼护施他（耶路撒冷人以利拿单的女儿）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>效法他父亲一切所行的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王下 24:9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被巴比伦围困后投降、百姓被掳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王下 24:10-16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西底家（原名玛探雅）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zedekiah（Mattaniah）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>犹大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>耶路撒冷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>约雅斤的叔叔、被巴比伦王所立</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>照约雅敬一切所行的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王下 24:19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背叛巴比伦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王下 25:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣殿被毁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王下 25:9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被巴比伦攻陷、掳走；百姓被掳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王下 25:1-7；王下 25:18-21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结局</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被巴比伦王释放且恩待</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王下 25:27-30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>众子被杀、眼睛被剜、被掳至巴比伦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王下 25:7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2688,20 +3160,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BT35"/>
+  <dimension ref="A1:CF35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="BJ3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="BS12" sqref="BS12"/>
+      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.75" customWidth="1"/>
     <col min="2" max="2" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="15.75" customWidth="1"/>
+    <col min="3" max="3" width="30.625" customWidth="1"/>
+    <col min="4" max="4" width="15.625" customWidth="1"/>
     <col min="5" max="5" width="30.75" customWidth="1"/>
     <col min="6" max="6" width="15.75" customWidth="1"/>
     <col min="7" max="7" width="30.75" customWidth="1"/>
@@ -2772,9 +3245,19 @@
     <col min="72" max="72" width="15.75" customWidth="1"/>
     <col min="73" max="73" width="30.75" customWidth="1"/>
     <col min="74" max="74" width="15.75" customWidth="1"/>
+    <col min="75" max="75" width="30.75" customWidth="1"/>
+    <col min="76" max="76" width="15.75" customWidth="1"/>
+    <col min="77" max="77" width="30.75" customWidth="1"/>
+    <col min="78" max="78" width="15.75" customWidth="1"/>
+    <col min="79" max="79" width="30.75" customWidth="1"/>
+    <col min="80" max="80" width="15.75" customWidth="1"/>
+    <col min="81" max="81" width="30.75" customWidth="1"/>
+    <col min="82" max="82" width="15.75" customWidth="1"/>
+    <col min="83" max="83" width="30.75" customWidth="1"/>
+    <col min="84" max="84" width="15.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:84" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>111</v>
       </c>
@@ -2803,91 +3286,109 @@
         <v>109</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="BQ1" s="1" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="BS1" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="BW1" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="BY1" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="CC1" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="CE1" s="1" t="s">
+        <v>676</v>
       </c>
     </row>
-    <row r="2" spans="1:72" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:84" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
@@ -2916,91 +3417,109 @@
         <v>110</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="U2" s="5" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="W2" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="Y2" s="5" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="AA2" s="5" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="AC2" s="5" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="AE2" s="5" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="AG2" s="5" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="AI2" s="5" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="AK2" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AM2" s="5" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="AO2" s="5" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="AQ2" s="5" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="AS2" s="5" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="AU2" s="5" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="AW2" s="5" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="AY2" s="5" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="BA2" s="5" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="BC2" s="5" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="BE2" s="5" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="BG2" s="5" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="BI2" s="5" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="BK2" s="5" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="BM2" s="5" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="BO2" s="5" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="BQ2" s="5" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="BS2" s="5" t="s">
-        <v>569</v>
+        <v>567</v>
+      </c>
+      <c r="BU2" s="5" t="s">
+        <v>592</v>
+      </c>
+      <c r="BW2" s="5" t="s">
+        <v>606</v>
+      </c>
+      <c r="BY2" s="5" t="s">
+        <v>637</v>
+      </c>
+      <c r="CA2" s="5" t="s">
+        <v>652</v>
+      </c>
+      <c r="CC2" s="5" t="s">
+        <v>664</v>
+      </c>
+      <c r="CE2" s="5" t="s">
+        <v>677</v>
       </c>
     </row>
-    <row r="3" spans="1:72" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:84" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -3028,330 +3547,390 @@
         <v>74</v>
       </c>
       <c r="Q3" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="S3" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="U3" s="6" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="W3" s="6" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="Y3" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AA3" s="6" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="AC3" s="6" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="AE3" s="6" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="AG3" s="6" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="AI3" s="6" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="AK3" s="6" t="s">
         <v>18</v>
       </c>
       <c r="AM3" s="6" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="AO3" s="6" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="AQ3" s="6" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="AS3" s="6" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="AU3" s="6" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="AW3" s="6" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="AY3" s="6" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="BA3" s="6" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="BC3" s="6" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="BE3" s="6" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="BG3" s="6" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="BI3" s="6" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="BK3" s="6" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="BM3" s="6" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="BO3" s="6" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="BQ3" s="6" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="BS3" s="6" t="s">
-        <v>532</v>
+        <v>530</v>
+      </c>
+      <c r="BU3" s="6" t="s">
+        <v>593</v>
+      </c>
+      <c r="BW3" s="6" t="s">
+        <v>607</v>
+      </c>
+      <c r="BY3" s="6" t="s">
+        <v>638</v>
+      </c>
+      <c r="CA3" s="6" t="s">
+        <v>650</v>
+      </c>
+      <c r="CC3" s="6" t="s">
+        <v>665</v>
+      </c>
+      <c r="CE3" s="6" t="s">
+        <v>678</v>
       </c>
     </row>
-    <row r="4" spans="1:72" s="6" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:84" s="6" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="J4" s="2"/>
       <c r="K4" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="L4" s="2"/>
       <c r="M4" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q4" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="S4" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="U4" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="W4" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="X4" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="Y4" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="AA4" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="Q4" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="S4" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="U4" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="W4" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="X4" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="Y4" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA4" s="6" t="s">
-        <v>223</v>
-      </c>
       <c r="AC4" s="6" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="AE4" s="6" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="AG4" s="6" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="AI4" s="6" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="AK4" s="6" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="AM4" s="6" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="AO4" s="6" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="AQ4" s="6" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="AS4" s="6" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="AU4" s="6" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AW4" s="6" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="AY4" s="6" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="BA4" s="6" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="BC4" s="6" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="BE4" s="6" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="BG4" s="6" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="BI4" s="6" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="BK4" s="6" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="BM4" s="6" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="BO4" s="6" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="BQ4" s="6" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="BS4" s="6" t="s">
-        <v>570</v>
+        <v>568</v>
+      </c>
+      <c r="BU4" s="6" t="s">
+        <v>594</v>
+      </c>
+      <c r="BW4" s="6" t="s">
+        <v>608</v>
+      </c>
+      <c r="BY4" s="6" t="s">
+        <v>639</v>
+      </c>
+      <c r="CA4" s="6" t="s">
+        <v>651</v>
+      </c>
+      <c r="CC4" s="6" t="s">
+        <v>666</v>
+      </c>
+      <c r="CE4" s="6" t="s">
+        <v>679</v>
       </c>
     </row>
-    <row r="5" spans="1:72" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:84" s="6" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>156</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>157</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J5" s="2"/>
       <c r="K5" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L5" s="2"/>
       <c r="M5" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q5" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="Q5" s="6" t="s">
+      <c r="R5" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="R5" s="6" t="s">
-        <v>164</v>
-      </c>
       <c r="S5" s="6" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="U5" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="W5" s="6" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="X5" s="6" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="Y5" s="6" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AA5" s="6" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="AC5" s="6" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="AE5" s="6" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="AG5" s="6" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="AI5" s="6" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="AK5" s="6" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="AM5" s="6" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="AO5" s="6" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="AP5" s="6" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="AQ5" s="6" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="AR5" s="6" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="AS5" s="6" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="AU5" s="6" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="AW5" s="6" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="AY5" s="6" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="BA5" s="6" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="BC5" s="6" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="BE5" s="6" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="BG5" s="6" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="BI5" s="6" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="BK5" s="6" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="BM5" s="6" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="BO5" s="6" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="BQ5" s="6" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="BS5" s="6" t="s">
-        <v>571</v>
+        <v>569</v>
+      </c>
+      <c r="BU5" s="6" t="s">
+        <v>595</v>
+      </c>
+      <c r="BW5" s="6" t="s">
+        <v>609</v>
+      </c>
+      <c r="BX5" s="6" t="s">
+        <v>610</v>
+      </c>
+      <c r="BY5" s="6" t="s">
+        <v>640</v>
+      </c>
+      <c r="BZ5" s="6" t="s">
+        <v>641</v>
+      </c>
+      <c r="CA5" s="6" t="s">
+        <v>649</v>
+      </c>
+      <c r="CC5" s="6" t="s">
+        <v>667</v>
+      </c>
+      <c r="CE5" s="6" t="s">
+        <v>681</v>
       </c>
     </row>
-    <row r="6" spans="1:72" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:84" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>17</v>
       </c>
@@ -3379,91 +3958,109 @@
         <v>119</v>
       </c>
       <c r="Q6" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="S6" s="6" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="U6" s="6" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="W6" s="6" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="Y6" s="6" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="AA6" s="6" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="AC6" s="6" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="AE6" s="6" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="AG6" s="6" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="AI6" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="AK6" s="6" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="AM6" s="6" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="AO6" s="6" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="AQ6" s="6" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="AS6" s="6" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="AU6" s="6" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="AW6" s="6" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="AY6" s="6" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="BA6" s="6" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="BC6" s="6" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="BE6" s="6" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="BG6" s="6" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="BI6" s="6" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="BK6" s="6" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="BM6" s="6" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="BO6" s="6" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="BQ6" s="6" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="BS6" s="6" t="s">
-        <v>573</v>
+        <v>571</v>
+      </c>
+      <c r="BU6" s="6" t="s">
+        <v>597</v>
+      </c>
+      <c r="BW6" s="6" t="s">
+        <v>612</v>
+      </c>
+      <c r="BY6" s="6" t="s">
+        <v>642</v>
+      </c>
+      <c r="CA6" s="6" t="s">
+        <v>654</v>
+      </c>
+      <c r="CC6" s="6" t="s">
+        <v>668</v>
+      </c>
+      <c r="CE6" s="6" t="s">
+        <v>680</v>
       </c>
     </row>
-    <row r="7" spans="1:72" s="6" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:84" s="6" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>10</v>
       </c>
@@ -3488,13 +4085,19 @@
         <v>134</v>
       </c>
       <c r="BO7" s="6" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="BP7" s="6" t="s">
-        <v>557</v>
+        <v>555</v>
+      </c>
+      <c r="BW7" s="6" t="s">
+        <v>630</v>
+      </c>
+      <c r="BX7" s="6" t="s">
+        <v>631</v>
       </c>
     </row>
-    <row r="8" spans="1:72" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:84" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>56</v>
       </c>
@@ -3515,49 +4118,55 @@
         <v>121</v>
       </c>
       <c r="AA8" s="6" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AB8" s="6" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="AK8" s="6" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="AL8" s="6" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="AQ8" s="6" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="AR8" s="6" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="AS8" s="6" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="AT8" s="6" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="AY8" s="6" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="AZ8" s="6" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="BC8" s="6" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="BD8" s="6" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="BO8" s="6" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="BP8" s="6" t="s">
-        <v>552</v>
+        <v>550</v>
+      </c>
+      <c r="BW8" s="6" t="s">
+        <v>614</v>
+      </c>
+      <c r="BX8" s="6" t="s">
+        <v>615</v>
       </c>
     </row>
-    <row r="9" spans="1:72" s="6" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:84" s="6" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>48</v>
       </c>
@@ -3592,330 +4201,402 @@
         <v>103</v>
       </c>
       <c r="Q9" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="R9" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="R9" s="6" t="s">
-        <v>155</v>
-      </c>
       <c r="S9" s="6" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="T9" s="6" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="U9" s="6" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="V9" s="6" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="W9" s="6" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="X9" s="6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="Y9" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="Z9" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="Z9" s="6" t="s">
-        <v>210</v>
-      </c>
       <c r="AC9" s="6" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AD9" s="6" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="AE9" s="6" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="AF9" s="6" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="AG9" s="6" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="AH9" s="6" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="AI9" s="6" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="AJ9" s="6" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="AK9" s="6" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="AL9" s="6" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="AM9" s="6" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="AN9" s="6" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="AU9" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="AV9" s="6" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="AW9" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="AX9" s="6" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="BA9" s="6" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="BB9" s="6" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="BG9" s="6" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="BH9" s="6" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="BI9" s="6" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="BJ9" s="6" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="BK9" s="6" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="BL9" s="6" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="BM9" s="6" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="BN9" s="6" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="BQ9" s="6" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="BR9" s="6" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="BS9" s="6" t="s">
-        <v>575</v>
+        <v>583</v>
       </c>
       <c r="BT9" s="6" t="s">
-        <v>576</v>
+        <v>584</v>
+      </c>
+      <c r="BU9" s="6" t="s">
+        <v>599</v>
+      </c>
+      <c r="BV9" s="6" t="s">
+        <v>600</v>
+      </c>
+      <c r="BY9" s="6" t="s">
+        <v>645</v>
+      </c>
+      <c r="BZ9" s="6" t="s">
+        <v>646</v>
+      </c>
+      <c r="CA9" s="6" t="s">
+        <v>645</v>
+      </c>
+      <c r="CB9" s="6" t="s">
+        <v>656</v>
+      </c>
+      <c r="CC9" s="6" t="s">
+        <v>672</v>
+      </c>
+      <c r="CD9" s="6" t="s">
+        <v>673</v>
+      </c>
+      <c r="CE9" s="6" t="s">
+        <v>682</v>
+      </c>
+      <c r="CF9" s="6" t="s">
+        <v>683</v>
       </c>
     </row>
-    <row r="10" spans="1:72" s="6" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:84" s="6" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>140</v>
+        <v>690</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>122</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>123</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>124</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>125</v>
       </c>
       <c r="K10" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="L10" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="L10" s="2" t="s">
-        <v>147</v>
-      </c>
       <c r="M10" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="N10" s="2" t="s">
         <v>108</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P10" s="2" t="s">
         <v>126</v>
       </c>
       <c r="Q10" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="R10" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="R10" s="6" t="s">
-        <v>169</v>
-      </c>
       <c r="S10" s="6" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="T10" s="6" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="U10" s="6" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="V10" s="6" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="W10" s="6" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="X10" s="6" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="Y10" s="6" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="Z10" s="6" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="AA10" s="6" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="AB10" s="6" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="AC10" s="6" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="AD10" s="6" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="AE10" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AF10" s="6" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="AG10" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="AH10" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="AI10" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="AJ10" s="6" t="s">
         <v>326</v>
       </c>
-      <c r="AH10" s="6" t="s">
-        <v>325</v>
-      </c>
-      <c r="AI10" s="6" t="s">
-        <v>327</v>
-      </c>
-      <c r="AJ10" s="6" t="s">
-        <v>328</v>
-      </c>
       <c r="AK10" s="6" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AL10" s="6" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="AM10" s="6" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="AN10" s="6" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="AO10" s="6" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="AP10" s="6" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="AQ10" s="6" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="AR10" s="6" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="AS10" s="6" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="AT10" s="6" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="AU10" s="6" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="AV10" s="6" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="AW10" s="6" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="AX10" s="6" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="AY10" s="6" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="AZ10" s="6" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="BA10" s="6" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="BB10" s="6" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="BC10" s="6" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="BD10" s="6" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="BE10" s="6" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="BF10" s="6" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="BG10" s="6" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="BH10" s="6" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="BI10" s="6" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="BJ10" s="6" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="BK10" s="6" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="BL10" s="6" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="BM10" s="6" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="BN10" s="6" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="BO10" s="6" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="BP10" s="6" t="s">
-        <v>567</v>
+        <v>565</v>
+      </c>
+      <c r="BS10" s="6" t="s">
+        <v>589</v>
+      </c>
+      <c r="BT10" s="6" t="s">
+        <v>590</v>
+      </c>
+      <c r="BU10" s="6" t="s">
+        <v>603</v>
+      </c>
+      <c r="BV10" s="6" t="s">
+        <v>604</v>
+      </c>
+      <c r="BW10" s="6" t="s">
+        <v>634</v>
+      </c>
+      <c r="BX10" s="6" t="s">
+        <v>635</v>
+      </c>
+      <c r="BY10" s="6" t="s">
+        <v>647</v>
+      </c>
+      <c r="BZ10" s="6" t="s">
+        <v>648</v>
+      </c>
+      <c r="CA10" s="6" t="s">
+        <v>661</v>
+      </c>
+      <c r="CB10" s="6" t="s">
+        <v>662</v>
+      </c>
+      <c r="CC10" s="6" t="s">
+        <v>691</v>
+      </c>
+      <c r="CD10" s="6" t="s">
+        <v>692</v>
+      </c>
+      <c r="CE10" s="6" t="s">
+        <v>693</v>
+      </c>
+      <c r="CF10" s="6" t="s">
+        <v>694</v>
       </c>
     </row>
-    <row r="11" spans="1:72" s="6" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:84" s="6" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>8</v>
       </c>
@@ -3934,7 +4615,7 @@
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
     </row>
-    <row r="12" spans="1:72" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:84" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>30</v>
       </c>
@@ -3953,13 +4634,13 @@
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="AK12" s="6" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AL12" s="6" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
-    <row r="13" spans="1:72" s="6" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:84" s="6" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>57</v>
       </c>
@@ -3970,10 +4651,10 @@
         <v>59</v>
       </c>
       <c r="G13" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="H13" s="2" t="s">
         <v>173</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>174</v>
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
@@ -3982,37 +4663,43 @@
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="Q13" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="R13" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="R13" s="6" t="s">
-        <v>171</v>
-      </c>
       <c r="Y13" s="6" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="Z13" s="6" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="AC13" s="6" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="AD13" s="6" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="AM13" s="6" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="AN13" s="6" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="AY13" s="6" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="AZ13" s="6" t="s">
-        <v>444</v>
+        <v>442</v>
+      </c>
+      <c r="BS13" s="6" t="s">
+        <v>585</v>
+      </c>
+      <c r="BT13" s="6" t="s">
+        <v>586</v>
       </c>
     </row>
-    <row r="14" spans="1:72" s="6" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:84" s="6" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>9</v>
       </c>
@@ -4031,20 +4718,20 @@
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="BO14" s="6" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="BP14" s="6" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
-    <row r="15" spans="1:72" s="6" customFormat="1" ht="114" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:84" s="6" customFormat="1" ht="114" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>68</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>78</v>
@@ -4056,49 +4743,61 @@
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="Q15" s="6" t="s">
-        <v>177</v>
+        <v>573</v>
       </c>
       <c r="R15" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="Y15" s="6" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="Z15" s="6" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="AC15" s="6" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="AD15" s="6" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="AG15" s="6" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="AH15" s="6" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="AK15" s="6" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="AL15" s="6" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="AU15" s="6" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="AV15" s="6" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="BO15" s="6" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="BP15" s="6" t="s">
-        <v>565</v>
+        <v>563</v>
+      </c>
+      <c r="BS15" s="6" t="s">
+        <v>587</v>
+      </c>
+      <c r="BT15" s="6" t="s">
+        <v>588</v>
+      </c>
+      <c r="BW15" s="6" t="s">
+        <v>617</v>
+      </c>
+      <c r="BX15" s="6" t="s">
+        <v>616</v>
       </c>
     </row>
-    <row r="16" spans="1:72" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:84" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -4111,7 +4810,7 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
     </row>
-    <row r="17" spans="1:71" s="6" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:84" s="6" customFormat="1" ht="57" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>51</v>
       </c>
@@ -4122,7 +4821,7 @@
         <v>53</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>75</v>
@@ -4144,49 +4843,67 @@
         <v>130</v>
       </c>
       <c r="Y17" s="6" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="Z17" s="6" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="AC17" s="6" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AD17" s="6" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="AG17" s="6" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="AH17" s="6" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="AK17" s="6" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="AL17" s="6" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="AM17" s="6" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="AN17" s="6" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="AQ17" s="6" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="AR17" s="6" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="BO17" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="BP17" s="6" t="s">
         <v>553</v>
       </c>
-      <c r="BP17" s="6" t="s">
-        <v>555</v>
+      <c r="BS17" s="6" t="s">
+        <v>577</v>
+      </c>
+      <c r="BT17" s="6" t="s">
+        <v>578</v>
+      </c>
+      <c r="BU17" s="6" t="s">
+        <v>601</v>
+      </c>
+      <c r="BV17" s="6" t="s">
+        <v>602</v>
+      </c>
+      <c r="BW17" s="6" t="s">
+        <v>626</v>
+      </c>
+      <c r="BX17" s="6" t="s">
+        <v>627</v>
       </c>
     </row>
-    <row r="18" spans="1:71" s="6" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:84" s="6" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>91</v>
       </c>
@@ -4211,27 +4928,39 @@
         <v>128</v>
       </c>
       <c r="Y18" s="6" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="Z18" s="6" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="AA18" s="6" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="AB18" s="6" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="BM18" s="6" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="BN18" s="6" t="s">
-        <v>525</v>
+        <v>523</v>
+      </c>
+      <c r="BS18" s="6" t="s">
+        <v>579</v>
+      </c>
+      <c r="BT18" s="6" t="s">
+        <v>580</v>
+      </c>
+      <c r="BW18" s="6" t="s">
+        <v>622</v>
+      </c>
+      <c r="BX18" s="6" t="s">
+        <v>623</v>
       </c>
     </row>
-    <row r="19" spans="1:71" s="6" customFormat="1" ht="57" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:84" s="6" customFormat="1" ht="57" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
@@ -4244,19 +4973,25 @@
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="AK19" s="6" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="AL19" s="6" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="AS19" s="6" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="AT19" s="6" t="s">
-        <v>415</v>
+        <v>413</v>
+      </c>
+      <c r="BW19" s="6" t="s">
+        <v>628</v>
+      </c>
+      <c r="BX19" s="6" t="s">
+        <v>629</v>
       </c>
     </row>
-    <row r="20" spans="1:71" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:84" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="7"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -4269,7 +5004,7 @@
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
     </row>
-    <row r="21" spans="1:71" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:84" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>44</v>
       </c>
@@ -4288,22 +5023,22 @@
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="Y21" s="6" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="Z21" s="6" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AE21" s="6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="AI21" s="6" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="AJ21" s="6" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
-    <row r="22" spans="1:71" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:84" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>45</v>
       </c>
@@ -4322,7 +5057,7 @@
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
     </row>
-    <row r="23" spans="1:71" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:84" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>62</v>
       </c>
@@ -4350,79 +5085,97 @@
         <v>118</v>
       </c>
       <c r="Q23" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="S23" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="Y23" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="S23" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="Y23" s="6" t="s">
-        <v>218</v>
-      </c>
       <c r="AA23" s="6" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="AC23" s="6" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="AE23" s="6" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="AG23" s="6" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="AI23" s="6" t="s">
-        <v>312</v>
+        <v>310</v>
+      </c>
+      <c r="AK23" s="6" t="s">
+        <v>574</v>
       </c>
       <c r="AM23" s="6" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="AQ23" s="6" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="AS23" s="6" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="AU23" s="6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="AW23" s="6" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="AY23" s="6" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="BA23" s="6" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="BC23" s="6" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="BE23" s="6" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="BG23" s="6" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="BI23" s="6" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="BK23" s="6" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="BM23" s="6" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="BO23" s="6" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="BQ23" s="6" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="BS23" s="6" t="s">
-        <v>572</v>
+        <v>570</v>
+      </c>
+      <c r="BU23" s="6" t="s">
+        <v>596</v>
+      </c>
+      <c r="BW23" s="6" t="s">
+        <v>611</v>
+      </c>
+      <c r="BY23" s="6" t="s">
+        <v>643</v>
+      </c>
+      <c r="CA23" s="6" t="s">
+        <v>653</v>
+      </c>
+      <c r="CC23" s="6" t="s">
+        <v>670</v>
       </c>
     </row>
-    <row r="24" spans="1:71" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:84" s="6" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>63</v>
       </c>
@@ -4445,34 +5198,52 @@
       </c>
       <c r="N24" s="2"/>
       <c r="AA24" s="6" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="AC24" s="6" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="AG24" s="6" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="AI24" s="6" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="AQ24" s="6" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="AS24" s="6" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="BC24" s="6" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="BO24" s="6" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="BS24" s="6" t="s">
-        <v>574</v>
+        <v>572</v>
+      </c>
+      <c r="BU24" s="6" t="s">
+        <v>598</v>
+      </c>
+      <c r="BW24" s="6" t="s">
+        <v>613</v>
+      </c>
+      <c r="BY24" s="6" t="s">
+        <v>644</v>
+      </c>
+      <c r="CA24" s="6" t="s">
+        <v>655</v>
+      </c>
+      <c r="CC24" s="6" t="s">
+        <v>671</v>
+      </c>
+      <c r="CE24" s="6" t="s">
+        <v>644</v>
       </c>
     </row>
-    <row r="25" spans="1:71" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:84" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="7"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
@@ -4485,7 +5256,7 @@
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
     </row>
-    <row r="26" spans="1:71" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:84" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>20</v>
       </c>
@@ -4504,7 +5275,7 @@
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
     </row>
-    <row r="27" spans="1:71" s="6" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:84" s="6" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>21</v>
       </c>
@@ -4523,31 +5294,49 @@
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="AQ27" s="6" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="AR27" s="6" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="AS27" s="6" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="AT27" s="6" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="BC27" s="6" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="BD27" s="6" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="BM27" s="6" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="BN27" s="6" t="s">
-        <v>527</v>
+        <v>525</v>
+      </c>
+      <c r="BS27" s="6" t="s">
+        <v>581</v>
+      </c>
+      <c r="BT27" s="6" t="s">
+        <v>582</v>
+      </c>
+      <c r="BW27" s="6" t="s">
+        <v>624</v>
+      </c>
+      <c r="BX27" s="6" t="s">
+        <v>625</v>
+      </c>
+      <c r="CE27" s="6" t="s">
+        <v>686</v>
+      </c>
+      <c r="CF27" s="6" t="s">
+        <v>687</v>
       </c>
     </row>
-    <row r="28" spans="1:71" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:84" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>14</v>
       </c>
@@ -4566,7 +5355,7 @@
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
     </row>
-    <row r="29" spans="1:71" s="6" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:84" s="6" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>6</v>
       </c>
@@ -4595,49 +5384,61 @@
         <v>132</v>
       </c>
       <c r="AA29" s="6" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="AB29" s="6" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="AQ29" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="AR29" s="6" t="s">
         <v>366</v>
       </c>
-      <c r="AR29" s="6" t="s">
-        <v>368</v>
-      </c>
       <c r="AS29" s="6" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="AT29" s="6" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="AY29" s="6" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="AZ29" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="BC29" s="6" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="BD29" s="6" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="BM29" s="6" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="BN29" s="6" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="BO29" s="6" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="BP29" s="6" t="s">
-        <v>555</v>
+        <v>553</v>
+      </c>
+      <c r="BS29" s="6" t="s">
+        <v>575</v>
+      </c>
+      <c r="BT29" s="6" t="s">
+        <v>576</v>
+      </c>
+      <c r="BW29" s="6" t="s">
+        <v>620</v>
+      </c>
+      <c r="BX29" s="6" t="s">
+        <v>621</v>
       </c>
     </row>
-    <row r="30" spans="1:71" s="6" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:84" s="6" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>7</v>
       </c>
@@ -4656,7 +5457,7 @@
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
     </row>
-    <row r="31" spans="1:71" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:84" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="7"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
@@ -4669,7 +5470,7 @@
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
     </row>
-    <row r="32" spans="1:71" s="6" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:84" s="6" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>25</v>
       </c>
@@ -4691,8 +5492,14 @@
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
+      <c r="BW32" s="6" t="s">
+        <v>618</v>
+      </c>
+      <c r="BX32" s="6" t="s">
+        <v>619</v>
+      </c>
     </row>
-    <row r="33" spans="1:70" s="6" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:84" s="6" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>35</v>
       </c>
@@ -4711,61 +5518,73 @@
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="Y33" s="6" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="Z33" s="6" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="AA33" s="6" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="AB33" s="6" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="AC33" s="6" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="AD33" s="6" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="AE33" s="6" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="AF33" s="6" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="AG33" s="6" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="AH33" s="6" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="AI33" s="6" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="AJ33" s="6" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="BM33" s="6" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="BN33" s="6" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="BO33" s="6" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="BP33" s="6" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="BQ33" s="6" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="BR33" s="6" t="s">
-        <v>546</v>
+        <v>544</v>
+      </c>
+      <c r="CA33" s="6" t="s">
+        <v>659</v>
+      </c>
+      <c r="CB33" s="6" t="s">
+        <v>660</v>
+      </c>
+      <c r="CE33" s="6" t="s">
+        <v>684</v>
+      </c>
+      <c r="CF33" s="6" t="s">
+        <v>685</v>
       </c>
     </row>
-    <row r="34" spans="1:70" s="6" customFormat="1" ht="57" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:84" s="6" customFormat="1" ht="57" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>36</v>
       </c>
@@ -4788,10 +5607,10 @@
         <v>100</v>
       </c>
       <c r="K34" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="L34" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="L34" s="2" t="s">
-        <v>149</v>
       </c>
       <c r="M34" s="2" t="s">
         <v>105</v>
@@ -4806,97 +5625,121 @@
         <v>136</v>
       </c>
       <c r="Y34" s="6" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="Z34" s="6" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AE34" s="6" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="AF34" s="6" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="AG34" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="AH34" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="AH34" s="6" t="s">
-        <v>299</v>
-      </c>
       <c r="AI34" s="6" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="AJ34" s="6" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="AM34" s="6" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="AN34" s="6" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="AQ34" s="6" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="AR34" s="6" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="AS34" s="6" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="AT34" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="AU34" s="6" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="AV34" s="6" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="AW34" s="6" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="AX34" s="6" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="BC34" s="6" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="BD34" s="6" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="BG34" s="6" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="BH34" s="6" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="BK34" s="6" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="BL34" s="6" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="BM34" s="6" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="BN34" s="6" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="BO34" s="6" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="BP34" s="6" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="BQ34" s="6" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="BR34" s="6" t="s">
-        <v>548</v>
+        <v>546</v>
+      </c>
+      <c r="BW34" s="6" t="s">
+        <v>633</v>
+      </c>
+      <c r="BX34" s="6" t="s">
+        <v>632</v>
+      </c>
+      <c r="CA34" s="6" t="s">
+        <v>657</v>
+      </c>
+      <c r="CB34" s="6" t="s">
+        <v>658</v>
+      </c>
+      <c r="CC34" s="6" t="s">
+        <v>674</v>
+      </c>
+      <c r="CD34" s="6" t="s">
+        <v>675</v>
+      </c>
+      <c r="CE34" s="6" t="s">
+        <v>688</v>
+      </c>
+      <c r="CF34" s="6" t="s">
+        <v>689</v>
       </c>
     </row>
-    <row r="35" spans="1:70" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:84" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>41</v>
       </c>

--- a/Samuel-Kings-Chronicles-notes/Kings.xlsx
+++ b/Samuel-Kings-Chronicles-notes/Kings.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Kings" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>

--- a/Samuel-Kings-Chronicles-notes/Kings.xlsx
+++ b/Samuel-Kings-Chronicles-notes/Kings.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Kings" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="695">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="756">
   <si>
     <t>国家</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -184,18 +184,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>财富</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每年金子666他连得</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王上 10:14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>王后</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -920,10 +908,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>王上 16:24</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>巴力；亚舍拉；照亚摩利人信从偶像</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -968,10 +952,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>亚哈谢</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>与亚兰征战被弓箭杀死；与列祖同睡在撒玛利亚</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1008,10 +988,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>示利希的女儿阿苏巴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>行他父亲亚撒所行的道</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1044,10 +1020,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>约兰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>与列祖同睡在大卫城</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1132,10 +1104,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>约兰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Jehoram</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1248,10 +1216,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>亚哈谢</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Ahaziah</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1260,10 +1224,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>约兰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>继承</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1383,10 +1343,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>约哈斯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Jehoahaz</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1419,10 +1375,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>约阿施</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Joash</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1467,10 +1419,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>亚哈谢</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>继承（祭司耶何耶大膏约阿施作王）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1531,10 +1479,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>约阿施</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>撒玛利亚</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1587,10 +1531,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>约阿施</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>以色列</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1599,10 +1539,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>约哈斯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>16年</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2563,10 +2499,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>约哈斯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Jehoahaz</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2796,6 +2728,318 @@
   </si>
   <si>
     <t>王下 25:7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上位年龄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>耶路撒冷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王上 11:42</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>希伯伦（7年）、耶路撒冷（33年）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王上 2:11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王上 2:11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以色列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>41岁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王上 14:21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>35岁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王上 22:42</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿苏巴（示利希的女儿）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王上 14:20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王上 15:2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王上 15:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王上 15:25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王上 15:33</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王上 16:8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王上 16:15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王上 16:23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王上 16:23-24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王上 16:29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王上 22:51</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[南]约兰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[北]约兰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[北]亚哈谢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[南]亚哈谢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32岁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王下 8:17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[北]约哈斯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[南]约阿施</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[北]约阿施</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[南]约哈斯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22岁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王下 8:26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王下 10:36</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王下 3:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王下 11:3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7岁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王下 11:21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王下 12:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王下 13:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王下 13:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25岁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王下 14:2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16岁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王下 14:23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王下 15:2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王下 15:8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王下 15:13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王下 15:17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王下 15:23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王下 15:27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25岁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王下 15:33</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20岁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王下 16:2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王下 17:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王下 18:2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12岁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王下 21:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22岁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王下 21:19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8岁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王下 22:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23岁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王下 23:31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王下 23:36</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王下 23:34</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18岁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王下 24:8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21岁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王下 24:18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[南]约兰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[南]约阿施</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[北]约阿施</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[北]约哈斯</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3160,950 +3404,1168 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CF35"/>
+  <dimension ref="A1:CG35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="AN21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomRight" activeCell="AV24" sqref="AV24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.75" customWidth="1"/>
-    <col min="2" max="2" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.625" customWidth="1"/>
-    <col min="4" max="4" width="15.625" customWidth="1"/>
-    <col min="5" max="5" width="30.75" customWidth="1"/>
-    <col min="6" max="6" width="15.75" customWidth="1"/>
-    <col min="7" max="7" width="30.75" customWidth="1"/>
-    <col min="8" max="8" width="15.75" customWidth="1"/>
-    <col min="9" max="9" width="30.75" customWidth="1"/>
-    <col min="10" max="10" width="15.75" customWidth="1"/>
-    <col min="11" max="11" width="30.75" customWidth="1"/>
-    <col min="12" max="12" width="15.75" customWidth="1"/>
-    <col min="13" max="13" width="30.75" customWidth="1"/>
-    <col min="14" max="14" width="15.75" customWidth="1"/>
-    <col min="15" max="15" width="30.75" customWidth="1"/>
-    <col min="16" max="16" width="15.75" customWidth="1"/>
-    <col min="17" max="17" width="30.75" customWidth="1"/>
-    <col min="18" max="18" width="15.75" customWidth="1"/>
-    <col min="19" max="19" width="30.75" customWidth="1"/>
-    <col min="20" max="20" width="15.75" customWidth="1"/>
-    <col min="21" max="21" width="30.75" customWidth="1"/>
-    <col min="22" max="22" width="15.75" customWidth="1"/>
-    <col min="23" max="23" width="30.75" customWidth="1"/>
-    <col min="24" max="24" width="15.75" customWidth="1"/>
-    <col min="25" max="25" width="30.75" customWidth="1"/>
-    <col min="26" max="26" width="15.75" customWidth="1"/>
-    <col min="27" max="27" width="30.75" customWidth="1"/>
-    <col min="28" max="28" width="15.75" customWidth="1"/>
-    <col min="29" max="29" width="30.75" customWidth="1"/>
-    <col min="30" max="30" width="15.75" customWidth="1"/>
-    <col min="31" max="31" width="30.75" customWidth="1"/>
-    <col min="32" max="32" width="15.75" customWidth="1"/>
-    <col min="33" max="33" width="30.75" customWidth="1"/>
-    <col min="34" max="34" width="15.75" customWidth="1"/>
-    <col min="35" max="35" width="30.75" customWidth="1"/>
-    <col min="36" max="36" width="15.75" customWidth="1"/>
-    <col min="37" max="37" width="30.75" customWidth="1"/>
-    <col min="38" max="38" width="15.75" customWidth="1"/>
-    <col min="39" max="39" width="30.75" customWidth="1"/>
-    <col min="40" max="40" width="15.75" customWidth="1"/>
-    <col min="41" max="41" width="30.75" customWidth="1"/>
-    <col min="42" max="42" width="15.75" customWidth="1"/>
-    <col min="43" max="43" width="30.75" customWidth="1"/>
-    <col min="44" max="44" width="15.75" customWidth="1"/>
-    <col min="45" max="45" width="30.75" customWidth="1"/>
-    <col min="46" max="46" width="15.75" customWidth="1"/>
-    <col min="47" max="47" width="30.75" customWidth="1"/>
-    <col min="48" max="48" width="15.75" customWidth="1"/>
-    <col min="49" max="49" width="30.75" customWidth="1"/>
-    <col min="50" max="50" width="15.75" customWidth="1"/>
-    <col min="51" max="51" width="30.75" customWidth="1"/>
-    <col min="52" max="52" width="15.75" customWidth="1"/>
-    <col min="53" max="53" width="30.75" customWidth="1"/>
-    <col min="54" max="54" width="15.75" customWidth="1"/>
-    <col min="55" max="55" width="30.75" customWidth="1"/>
-    <col min="56" max="56" width="15.75" customWidth="1"/>
-    <col min="57" max="57" width="30.75" customWidth="1"/>
-    <col min="58" max="58" width="15.75" customWidth="1"/>
-    <col min="59" max="59" width="30.75" customWidth="1"/>
-    <col min="60" max="60" width="15.75" customWidth="1"/>
-    <col min="61" max="61" width="30.75" customWidth="1"/>
-    <col min="62" max="62" width="15.75" customWidth="1"/>
-    <col min="63" max="63" width="30.75" customWidth="1"/>
-    <col min="64" max="64" width="15.75" customWidth="1"/>
-    <col min="65" max="65" width="30.75" customWidth="1"/>
-    <col min="66" max="66" width="15.75" customWidth="1"/>
-    <col min="67" max="67" width="30.75" customWidth="1"/>
-    <col min="68" max="68" width="15.75" customWidth="1"/>
-    <col min="69" max="69" width="30.75" customWidth="1"/>
-    <col min="70" max="70" width="15.75" customWidth="1"/>
-    <col min="71" max="71" width="30.75" customWidth="1"/>
-    <col min="72" max="72" width="15.75" customWidth="1"/>
-    <col min="73" max="73" width="30.75" customWidth="1"/>
-    <col min="74" max="74" width="15.75" customWidth="1"/>
-    <col min="75" max="75" width="30.75" customWidth="1"/>
-    <col min="76" max="76" width="15.75" customWidth="1"/>
-    <col min="77" max="77" width="30.75" customWidth="1"/>
-    <col min="78" max="78" width="15.75" customWidth="1"/>
-    <col min="79" max="79" width="30.75" customWidth="1"/>
-    <col min="80" max="80" width="15.75" customWidth="1"/>
-    <col min="81" max="81" width="30.75" customWidth="1"/>
-    <col min="82" max="82" width="15.75" customWidth="1"/>
-    <col min="83" max="83" width="30.75" customWidth="1"/>
-    <col min="84" max="84" width="15.75" customWidth="1"/>
+    <col min="1" max="1" width="11.77734375" customWidth="1"/>
+    <col min="2" max="2" width="30.77734375" customWidth="1"/>
+    <col min="3" max="3" width="15.77734375" customWidth="1"/>
+    <col min="4" max="4" width="30.77734375" customWidth="1"/>
+    <col min="5" max="5" width="15.77734375" customWidth="1"/>
+    <col min="6" max="6" width="30.77734375" customWidth="1"/>
+    <col min="7" max="7" width="15.77734375" customWidth="1"/>
+    <col min="8" max="8" width="30.77734375" customWidth="1"/>
+    <col min="9" max="9" width="15.77734375" customWidth="1"/>
+    <col min="10" max="10" width="30.77734375" customWidth="1"/>
+    <col min="11" max="11" width="15.77734375" customWidth="1"/>
+    <col min="12" max="12" width="30.77734375" customWidth="1"/>
+    <col min="13" max="13" width="15.77734375" customWidth="1"/>
+    <col min="14" max="14" width="30.77734375" customWidth="1"/>
+    <col min="15" max="15" width="15.77734375" customWidth="1"/>
+    <col min="16" max="16" width="30.77734375" customWidth="1"/>
+    <col min="17" max="17" width="15.77734375" customWidth="1"/>
+    <col min="18" max="18" width="30.77734375" customWidth="1"/>
+    <col min="19" max="19" width="15.77734375" customWidth="1"/>
+    <col min="20" max="20" width="30.77734375" customWidth="1"/>
+    <col min="21" max="21" width="15.77734375" customWidth="1"/>
+    <col min="22" max="22" width="30.77734375" customWidth="1"/>
+    <col min="23" max="23" width="15.77734375" customWidth="1"/>
+    <col min="24" max="24" width="30.77734375" customWidth="1"/>
+    <col min="25" max="25" width="15.77734375" customWidth="1"/>
+    <col min="26" max="26" width="30.77734375" customWidth="1"/>
+    <col min="27" max="27" width="15.77734375" customWidth="1"/>
+    <col min="28" max="28" width="30.77734375" customWidth="1"/>
+    <col min="29" max="29" width="15.77734375" customWidth="1"/>
+    <col min="30" max="30" width="30.77734375" customWidth="1"/>
+    <col min="31" max="31" width="15.77734375" customWidth="1"/>
+    <col min="32" max="32" width="30.77734375" customWidth="1"/>
+    <col min="33" max="33" width="15.77734375" customWidth="1"/>
+    <col min="34" max="34" width="30.77734375" customWidth="1"/>
+    <col min="35" max="35" width="15.77734375" customWidth="1"/>
+    <col min="36" max="36" width="30.77734375" customWidth="1"/>
+    <col min="37" max="37" width="15.77734375" customWidth="1"/>
+    <col min="38" max="38" width="30.77734375" customWidth="1"/>
+    <col min="39" max="39" width="15.77734375" customWidth="1"/>
+    <col min="40" max="40" width="30.77734375" customWidth="1"/>
+    <col min="41" max="41" width="15.77734375" customWidth="1"/>
+    <col min="42" max="42" width="30.77734375" customWidth="1"/>
+    <col min="43" max="43" width="15.77734375" customWidth="1"/>
+    <col min="44" max="44" width="30.77734375" customWidth="1"/>
+    <col min="45" max="45" width="15.77734375" customWidth="1"/>
+    <col min="46" max="46" width="30.77734375" customWidth="1"/>
+    <col min="47" max="47" width="15.77734375" customWidth="1"/>
+    <col min="48" max="48" width="30.77734375" customWidth="1"/>
+    <col min="49" max="49" width="15.77734375" customWidth="1"/>
+    <col min="50" max="50" width="30.77734375" customWidth="1"/>
+    <col min="51" max="51" width="15.77734375" customWidth="1"/>
+    <col min="52" max="52" width="30.77734375" customWidth="1"/>
+    <col min="53" max="53" width="15.77734375" customWidth="1"/>
+    <col min="54" max="54" width="30.77734375" customWidth="1"/>
+    <col min="55" max="55" width="15.77734375" customWidth="1"/>
+    <col min="56" max="56" width="30.77734375" customWidth="1"/>
+    <col min="57" max="57" width="15.77734375" customWidth="1"/>
+    <col min="58" max="58" width="30.77734375" customWidth="1"/>
+    <col min="59" max="59" width="15.77734375" customWidth="1"/>
+    <col min="60" max="60" width="30.77734375" customWidth="1"/>
+    <col min="61" max="61" width="15.77734375" customWidth="1"/>
+    <col min="62" max="62" width="30.77734375" customWidth="1"/>
+    <col min="63" max="63" width="15.77734375" customWidth="1"/>
+    <col min="64" max="64" width="30.77734375" customWidth="1"/>
+    <col min="65" max="65" width="15.77734375" customWidth="1"/>
+    <col min="66" max="66" width="30.77734375" customWidth="1"/>
+    <col min="67" max="67" width="15.77734375" customWidth="1"/>
+    <col min="68" max="68" width="30.77734375" customWidth="1"/>
+    <col min="69" max="69" width="15.77734375" customWidth="1"/>
+    <col min="70" max="70" width="30.77734375" customWidth="1"/>
+    <col min="71" max="71" width="15.77734375" customWidth="1"/>
+    <col min="72" max="72" width="30.77734375" customWidth="1"/>
+    <col min="73" max="73" width="15.77734375" customWidth="1"/>
+    <col min="74" max="74" width="30.77734375" customWidth="1"/>
+    <col min="75" max="75" width="15.77734375" customWidth="1"/>
+    <col min="76" max="76" width="30.77734375" customWidth="1"/>
+    <col min="77" max="77" width="15.77734375" customWidth="1"/>
+    <col min="78" max="78" width="30.77734375" customWidth="1"/>
+    <col min="79" max="79" width="15.77734375" customWidth="1"/>
+    <col min="80" max="80" width="30.77734375" customWidth="1"/>
+    <col min="81" max="81" width="15.77734375" customWidth="1"/>
+    <col min="82" max="82" width="30.77734375" customWidth="1"/>
+    <col min="83" max="83" width="15.77734375" customWidth="1"/>
+    <col min="84" max="84" width="30.77734375" customWidth="1"/>
+    <col min="85" max="85" width="15.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:84" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:85" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="BA1" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="BC1" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="BE1" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="BG1" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="BI1" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="BK1" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="BM1" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="BO1" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="BQ1" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="BS1" s="1" t="s">
-        <v>566</v>
-      </c>
-      <c r="BU1" s="1" t="s">
-        <v>591</v>
-      </c>
-      <c r="BW1" s="1" t="s">
-        <v>605</v>
-      </c>
-      <c r="BY1" s="1" t="s">
-        <v>636</v>
-      </c>
-      <c r="CA1" s="1" t="s">
-        <v>669</v>
-      </c>
-      <c r="CC1" s="1" t="s">
-        <v>663</v>
-      </c>
-      <c r="CE1" s="1" t="s">
-        <v>676</v>
+      <c r="N1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="BX1" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="CB1" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="CD1" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="CF1" s="1" t="s">
+        <v>659</v>
       </c>
     </row>
-    <row r="2" spans="1:84" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:85" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="S2" s="5" t="s">
+      <c r="H2" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="V2" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="U2" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="W2" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="Y2" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="AA2" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="AC2" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="AE2" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="AG2" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="AI2" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="AK2" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="AM2" s="5" t="s">
-        <v>342</v>
-      </c>
-      <c r="AO2" s="5" t="s">
-        <v>346</v>
-      </c>
-      <c r="AQ2" s="5" t="s">
-        <v>351</v>
-      </c>
-      <c r="AS2" s="5" t="s">
-        <v>375</v>
-      </c>
-      <c r="AU2" s="5" t="s">
-        <v>351</v>
-      </c>
-      <c r="AW2" s="5" t="s">
-        <v>400</v>
-      </c>
-      <c r="AY2" s="5" t="s">
-        <v>422</v>
-      </c>
-      <c r="BA2" s="5" t="s">
-        <v>433</v>
-      </c>
-      <c r="BC2" s="5" t="s">
-        <v>445</v>
-      </c>
-      <c r="BE2" s="5" t="s">
-        <v>456</v>
-      </c>
-      <c r="BG2" s="5" t="s">
-        <v>465</v>
-      </c>
-      <c r="BI2" s="5" t="s">
-        <v>478</v>
-      </c>
-      <c r="BK2" s="5" t="s">
-        <v>487</v>
-      </c>
-      <c r="BM2" s="5" t="s">
-        <v>508</v>
-      </c>
-      <c r="BO2" s="5" t="s">
-        <v>529</v>
-      </c>
-      <c r="BQ2" s="5" t="s">
-        <v>535</v>
-      </c>
-      <c r="BS2" s="5" t="s">
-        <v>567</v>
-      </c>
-      <c r="BU2" s="5" t="s">
-        <v>592</v>
-      </c>
-      <c r="BW2" s="5" t="s">
-        <v>606</v>
-      </c>
-      <c r="BY2" s="5" t="s">
-        <v>637</v>
-      </c>
-      <c r="CA2" s="5" t="s">
-        <v>652</v>
-      </c>
-      <c r="CC2" s="5" t="s">
-        <v>664</v>
-      </c>
-      <c r="CE2" s="5" t="s">
-        <v>677</v>
+      <c r="X2" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="Z2" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="AB2" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="AD2" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="AF2" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="AH2" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="AJ2" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="AL2" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="AN2" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="AP2" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="AR2" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="AT2" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="AV2" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="AX2" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="AZ2" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="BB2" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="BD2" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="BF2" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="BH2" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="BJ2" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="BL2" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="BN2" s="5" t="s">
+        <v>492</v>
+      </c>
+      <c r="BP2" s="5" t="s">
+        <v>513</v>
+      </c>
+      <c r="BR2" s="5" t="s">
+        <v>519</v>
+      </c>
+      <c r="BT2" s="5" t="s">
+        <v>551</v>
+      </c>
+      <c r="BV2" s="5" t="s">
+        <v>576</v>
+      </c>
+      <c r="BX2" s="5" t="s">
+        <v>590</v>
+      </c>
+      <c r="BZ2" s="5" t="s">
+        <v>620</v>
+      </c>
+      <c r="CB2" s="5" t="s">
+        <v>635</v>
+      </c>
+      <c r="CD2" s="5" t="s">
+        <v>647</v>
+      </c>
+      <c r="CF2" s="5" t="s">
+        <v>660</v>
       </c>
     </row>
-    <row r="3" spans="1:84" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:85" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="D3" s="6" t="s">
+        <v>685</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q3" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="S3" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="U3" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="W3" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="Y3" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="AA3" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="AC3" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="AE3" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="AG3" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="AI3" s="6" t="s">
-        <v>309</v>
-      </c>
-      <c r="AK3" s="6" t="s">
+      <c r="G3" s="2"/>
+      <c r="H3" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="R3" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="T3" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="V3" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="X3" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="Z3" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="AB3" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="AD3" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="AF3" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="AH3" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="AJ3" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="AL3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="AM3" s="6" t="s">
-        <v>343</v>
-      </c>
-      <c r="AO3" s="6" t="s">
-        <v>347</v>
-      </c>
-      <c r="AQ3" s="6" t="s">
-        <v>360</v>
-      </c>
-      <c r="AS3" s="6" t="s">
-        <v>360</v>
-      </c>
-      <c r="AU3" s="6" t="s">
-        <v>393</v>
-      </c>
-      <c r="AW3" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="AY3" s="6" t="s">
-        <v>423</v>
-      </c>
-      <c r="BA3" s="6" t="s">
-        <v>393</v>
-      </c>
-      <c r="BC3" s="6" t="s">
-        <v>423</v>
-      </c>
-      <c r="BE3" s="6" t="s">
-        <v>457</v>
-      </c>
-      <c r="BG3" s="6" t="s">
-        <v>467</v>
-      </c>
-      <c r="BI3" s="6" t="s">
-        <v>479</v>
-      </c>
-      <c r="BK3" s="6" t="s">
-        <v>393</v>
-      </c>
-      <c r="BM3" s="6" t="s">
-        <v>509</v>
-      </c>
-      <c r="BO3" s="6" t="s">
-        <v>530</v>
-      </c>
-      <c r="BQ3" s="6" t="s">
-        <v>537</v>
-      </c>
-      <c r="BS3" s="6" t="s">
-        <v>530</v>
-      </c>
-      <c r="BU3" s="6" t="s">
-        <v>593</v>
-      </c>
-      <c r="BW3" s="6" t="s">
-        <v>607</v>
-      </c>
-      <c r="BY3" s="6" t="s">
-        <v>638</v>
-      </c>
-      <c r="CA3" s="6" t="s">
-        <v>650</v>
-      </c>
-      <c r="CC3" s="6" t="s">
-        <v>665</v>
-      </c>
-      <c r="CE3" s="6" t="s">
-        <v>678</v>
+      <c r="AN3" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="AP3" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="AR3" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="AT3" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="AV3" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="AX3" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="AZ3" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="BB3" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="BD3" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="BF3" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="BH3" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="BJ3" s="6" t="s">
+        <v>463</v>
+      </c>
+      <c r="BL3" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="BN3" s="6" t="s">
+        <v>493</v>
+      </c>
+      <c r="BP3" s="6" t="s">
+        <v>514</v>
+      </c>
+      <c r="BR3" s="6" t="s">
+        <v>521</v>
+      </c>
+      <c r="BT3" s="6" t="s">
+        <v>514</v>
+      </c>
+      <c r="BV3" s="6" t="s">
+        <v>577</v>
+      </c>
+      <c r="BX3" s="6" t="s">
+        <v>591</v>
+      </c>
+      <c r="BZ3" s="6" t="s">
+        <v>621</v>
+      </c>
+      <c r="CB3" s="6" t="s">
+        <v>633</v>
+      </c>
+      <c r="CD3" s="6" t="s">
+        <v>648</v>
+      </c>
+      <c r="CF3" s="6" t="s">
+        <v>661</v>
       </c>
     </row>
-    <row r="4" spans="1:84" s="6" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:85" s="6" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2" t="s">
-        <v>223</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>681</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>682</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="G4" s="2"/>
       <c r="H4" s="2" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2" t="s">
+      <c r="J4" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="Q4" s="6" t="s">
+      <c r="M4" s="2"/>
+      <c r="N4" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="S4" s="6" t="s">
+      <c r="O4" s="2"/>
+      <c r="P4" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="R4" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="T4" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="V4" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="X4" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="Y4" s="6" t="s">
+        <v>699</v>
+      </c>
+      <c r="Z4" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="AB4" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="U4" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="W4" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="X4" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="Y4" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="AA4" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="AC4" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="AE4" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="AG4" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="AI4" s="6" t="s">
-        <v>312</v>
-      </c>
-      <c r="AK4" s="6" t="s">
+      <c r="AD4" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="AF4" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="AH4" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="AJ4" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="AL4" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="AN4" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="AP4" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="AR4" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="AT4" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="AV4" s="6" t="s">
         <v>379</v>
       </c>
-      <c r="AM4" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="AO4" s="6" t="s">
-        <v>357</v>
-      </c>
-      <c r="AQ4" s="6" t="s">
-        <v>357</v>
-      </c>
-      <c r="AS4" s="6" t="s">
-        <v>376</v>
-      </c>
-      <c r="AU4" s="6" t="s">
-        <v>394</v>
-      </c>
-      <c r="AW4" s="6" t="s">
-        <v>402</v>
-      </c>
-      <c r="AY4" s="6" t="s">
-        <v>376</v>
-      </c>
-      <c r="BA4" s="6" t="s">
+      <c r="AX4" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="AZ4" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="BB4" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="BD4" s="6" t="s">
+        <v>431</v>
+      </c>
+      <c r="BF4" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="BH4" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="BJ4" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="BL4" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="BN4" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="BP4" s="6" t="s">
+        <v>515</v>
+      </c>
+      <c r="BR4" s="6" t="s">
+        <v>522</v>
+      </c>
+      <c r="BT4" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="BV4" s="6" t="s">
+        <v>578</v>
+      </c>
+      <c r="BX4" s="6" t="s">
+        <v>592</v>
+      </c>
+      <c r="BZ4" s="6" t="s">
+        <v>622</v>
+      </c>
+      <c r="CB4" s="6" t="s">
+        <v>634</v>
+      </c>
+      <c r="CD4" s="6" t="s">
+        <v>649</v>
+      </c>
+      <c r="CF4" s="6" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="5" spans="1:85" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>678</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="AB5" s="6" t="s">
+        <v>688</v>
+      </c>
+      <c r="AC5" s="6" t="s">
+        <v>689</v>
+      </c>
+      <c r="AF5" s="6" t="s">
+        <v>706</v>
+      </c>
+      <c r="AG5" s="6" t="s">
+        <v>707</v>
+      </c>
+      <c r="AJ5" s="6" t="s">
+        <v>712</v>
+      </c>
+      <c r="AK5" s="6" t="s">
+        <v>713</v>
+      </c>
+      <c r="AR5" s="6" t="s">
+        <v>717</v>
+      </c>
+      <c r="AS5" s="6" t="s">
+        <v>718</v>
+      </c>
+      <c r="AT5" s="6" t="s">
+        <v>722</v>
+      </c>
+      <c r="AU5" s="6" t="s">
+        <v>723</v>
+      </c>
+      <c r="AZ5" s="6" t="s">
+        <v>724</v>
+      </c>
+      <c r="BA5" s="6" t="s">
+        <v>726</v>
+      </c>
+      <c r="BD5" s="6" t="s">
+        <v>732</v>
+      </c>
+      <c r="BE5" s="6" t="s">
+        <v>733</v>
+      </c>
+      <c r="BN5" s="6" t="s">
+        <v>734</v>
+      </c>
+      <c r="BO5" s="6" t="s">
+        <v>735</v>
+      </c>
+      <c r="BP5" s="6" t="s">
+        <v>732</v>
+      </c>
+      <c r="BQ5" s="6" t="s">
+        <v>737</v>
+      </c>
+      <c r="BT5" s="6" t="s">
+        <v>738</v>
+      </c>
+      <c r="BU5" s="6" t="s">
+        <v>739</v>
+      </c>
+      <c r="BV5" s="6" t="s">
+        <v>740</v>
+      </c>
+      <c r="BW5" s="6" t="s">
+        <v>741</v>
+      </c>
+      <c r="BX5" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="BY5" s="6" t="s">
+        <v>743</v>
+      </c>
+      <c r="BZ5" s="6" t="s">
+        <v>744</v>
+      </c>
+      <c r="CA5" s="6" t="s">
+        <v>745</v>
+      </c>
+      <c r="CB5" s="6" t="s">
+        <v>732</v>
+      </c>
+      <c r="CC5" s="6" t="s">
+        <v>746</v>
+      </c>
+      <c r="CD5" s="6" t="s">
+        <v>748</v>
+      </c>
+      <c r="CE5" s="6" t="s">
+        <v>749</v>
+      </c>
+      <c r="CF5" s="6" t="s">
+        <v>750</v>
+      </c>
+      <c r="CG5" s="6" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="6" spans="1:85" s="6" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="R6" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="S6" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="T6" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="V6" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="X6" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="Y6" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="Z6" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="AB6" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="AD6" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="AF6" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="AH6" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="AJ6" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="AL6" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="AN6" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="AP6" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="AQ6" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="AR6" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="AS6" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="AT6" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="AV6" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="AX6" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="AZ6" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="BB6" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="BD6" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="BF6" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="BH6" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="BJ6" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="BL6" s="6" t="s">
+        <v>473</v>
+      </c>
+      <c r="BN6" s="6" t="s">
+        <v>495</v>
+      </c>
+      <c r="BP6" s="6" t="s">
+        <v>516</v>
+      </c>
+      <c r="BR6" s="6" t="s">
+        <v>523</v>
+      </c>
+      <c r="BT6" s="6" t="s">
+        <v>553</v>
+      </c>
+      <c r="BV6" s="6" t="s">
+        <v>579</v>
+      </c>
+      <c r="BX6" s="6" t="s">
+        <v>593</v>
+      </c>
+      <c r="BY6" s="6" t="s">
+        <v>594</v>
+      </c>
+      <c r="BZ6" s="6" t="s">
+        <v>623</v>
+      </c>
+      <c r="CA6" s="6" t="s">
+        <v>624</v>
+      </c>
+      <c r="CB6" s="6" t="s">
+        <v>632</v>
+      </c>
+      <c r="CC6" s="6" t="s">
+        <v>747</v>
+      </c>
+      <c r="CD6" s="6" t="s">
+        <v>650</v>
+      </c>
+      <c r="CF6" s="6" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="7" spans="1:85" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>683</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>684</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>691</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>694</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>692</v>
+      </c>
+      <c r="P7" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q7" s="6" t="s">
+        <v>693</v>
+      </c>
+      <c r="R7" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="S7" s="6" t="s">
+        <v>695</v>
+      </c>
+      <c r="T7" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="U7" s="6" t="s">
+        <v>696</v>
+      </c>
+      <c r="V7" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="W7" s="6" t="s">
+        <v>697</v>
+      </c>
+      <c r="X7" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="Y7" s="6" t="s">
+        <v>698</v>
+      </c>
+      <c r="Z7" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="AA7" s="6" t="s">
+        <v>700</v>
+      </c>
+      <c r="AB7" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="AC7" s="6" t="s">
+        <v>689</v>
+      </c>
+      <c r="AD7" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="AE7" s="6" t="s">
+        <v>701</v>
+      </c>
+      <c r="AF7" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="AG7" s="6" t="s">
+        <v>707</v>
+      </c>
+      <c r="AH7" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="AI7" s="6" t="s">
+        <v>715</v>
+      </c>
+      <c r="AJ7" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="AK7" s="6" t="s">
+        <v>713</v>
+      </c>
+      <c r="AL7" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="AM7" s="6" t="s">
+        <v>714</v>
+      </c>
+      <c r="AN7" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="AO7" s="6" t="s">
+        <v>720</v>
+      </c>
+      <c r="AP7" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="AQ7" s="6" t="s">
+        <v>716</v>
+      </c>
+      <c r="AR7" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="AS7" s="6" t="s">
+        <v>719</v>
+      </c>
+      <c r="AT7" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="AU7" s="6" t="s">
+        <v>723</v>
+      </c>
+      <c r="AV7" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="AW7" s="6" t="s">
+        <v>721</v>
+      </c>
+      <c r="AX7" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="AY7" s="6" t="s">
+        <v>725</v>
+      </c>
+      <c r="AZ7" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="BA7" s="6" t="s">
+        <v>726</v>
+      </c>
+      <c r="BB7" s="6" t="s">
         <v>434</v>
       </c>
-      <c r="BC4" s="6" t="s">
-        <v>447</v>
-      </c>
-      <c r="BE4" s="6" t="s">
-        <v>458</v>
-      </c>
-      <c r="BG4" s="6" t="s">
-        <v>468</v>
-      </c>
-      <c r="BI4" s="6" t="s">
-        <v>434</v>
-      </c>
-      <c r="BK4" s="6" t="s">
-        <v>488</v>
-      </c>
-      <c r="BM4" s="6" t="s">
-        <v>510</v>
-      </c>
-      <c r="BO4" s="6" t="s">
-        <v>531</v>
-      </c>
-      <c r="BQ4" s="6" t="s">
-        <v>538</v>
-      </c>
-      <c r="BS4" s="6" t="s">
-        <v>568</v>
-      </c>
-      <c r="BU4" s="6" t="s">
-        <v>594</v>
-      </c>
-      <c r="BW4" s="6" t="s">
-        <v>608</v>
-      </c>
-      <c r="BY4" s="6" t="s">
-        <v>639</v>
-      </c>
-      <c r="CA4" s="6" t="s">
+      <c r="BC7" s="6" t="s">
+        <v>727</v>
+      </c>
+      <c r="BD7" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="BE7" s="6" t="s">
+        <v>733</v>
+      </c>
+      <c r="BF7" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="BG7" s="6" t="s">
+        <v>728</v>
+      </c>
+      <c r="BH7" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="BI7" s="6" t="s">
+        <v>729</v>
+      </c>
+      <c r="BJ7" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="BK7" s="6" t="s">
+        <v>730</v>
+      </c>
+      <c r="BL7" s="6" t="s">
+        <v>474</v>
+      </c>
+      <c r="BM7" s="6" t="s">
+        <v>731</v>
+      </c>
+      <c r="BN7" s="6" t="s">
+        <v>497</v>
+      </c>
+      <c r="BO7" s="6" t="s">
+        <v>735</v>
+      </c>
+      <c r="BP7" s="6" t="s">
+        <v>532</v>
+      </c>
+      <c r="BQ7" s="6" t="s">
+        <v>737</v>
+      </c>
+      <c r="BR7" s="6" t="s">
+        <v>524</v>
+      </c>
+      <c r="BS7" s="6" t="s">
+        <v>736</v>
+      </c>
+      <c r="BT7" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="BU7" s="6" t="s">
+        <v>739</v>
+      </c>
+      <c r="BV7" s="6" t="s">
+        <v>581</v>
+      </c>
+      <c r="BW7" s="6" t="s">
+        <v>741</v>
+      </c>
+      <c r="BX7" s="6" t="s">
+        <v>596</v>
+      </c>
+      <c r="BY7" s="6" t="s">
+        <v>743</v>
+      </c>
+      <c r="BZ7" s="6" t="s">
+        <v>625</v>
+      </c>
+      <c r="CA7" s="6" t="s">
+        <v>745</v>
+      </c>
+      <c r="CB7" s="6" t="s">
+        <v>637</v>
+      </c>
+      <c r="CC7" s="6" t="s">
+        <v>746</v>
+      </c>
+      <c r="CD7" s="6" t="s">
         <v>651</v>
       </c>
-      <c r="CC4" s="6" t="s">
-        <v>666</v>
-      </c>
-      <c r="CE4" s="6" t="s">
-        <v>679</v>
+      <c r="CE7" s="6" t="s">
+        <v>749</v>
+      </c>
+      <c r="CF7" s="6" t="s">
+        <v>663</v>
+      </c>
+      <c r="CG7" s="6" t="s">
+        <v>751</v>
       </c>
     </row>
-    <row r="5" spans="1:84" s="6" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q5" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="R5" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="S5" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="U5" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="W5" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="X5" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="Y5" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="AA5" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="AC5" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="AE5" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="AG5" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="AI5" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="AK5" s="6" t="s">
-        <v>328</v>
-      </c>
-      <c r="AM5" s="6" t="s">
-        <v>381</v>
-      </c>
-      <c r="AO5" s="6" t="s">
-        <v>348</v>
-      </c>
-      <c r="AP5" s="6" t="s">
-        <v>349</v>
-      </c>
-      <c r="AQ5" s="6" t="s">
-        <v>363</v>
-      </c>
-      <c r="AR5" s="6" t="s">
-        <v>352</v>
-      </c>
-      <c r="AS5" s="6" t="s">
-        <v>377</v>
-      </c>
-      <c r="AU5" s="6" t="s">
-        <v>377</v>
-      </c>
-      <c r="AW5" s="6" t="s">
-        <v>424</v>
-      </c>
-      <c r="AY5" s="6" t="s">
-        <v>377</v>
-      </c>
-      <c r="BA5" s="6" t="s">
-        <v>435</v>
-      </c>
-      <c r="BC5" s="6" t="s">
-        <v>448</v>
-      </c>
-      <c r="BE5" s="6" t="s">
-        <v>459</v>
-      </c>
-      <c r="BG5" s="6" t="s">
-        <v>469</v>
-      </c>
-      <c r="BI5" s="6" t="s">
-        <v>480</v>
-      </c>
-      <c r="BK5" s="6" t="s">
-        <v>489</v>
-      </c>
-      <c r="BM5" s="6" t="s">
-        <v>511</v>
-      </c>
-      <c r="BO5" s="6" t="s">
-        <v>532</v>
-      </c>
-      <c r="BQ5" s="6" t="s">
-        <v>539</v>
-      </c>
-      <c r="BS5" s="6" t="s">
-        <v>569</v>
-      </c>
-      <c r="BU5" s="6" t="s">
-        <v>595</v>
-      </c>
-      <c r="BW5" s="6" t="s">
-        <v>609</v>
-      </c>
-      <c r="BX5" s="6" t="s">
-        <v>610</v>
-      </c>
-      <c r="BY5" s="6" t="s">
-        <v>640</v>
-      </c>
-      <c r="BZ5" s="6" t="s">
-        <v>641</v>
-      </c>
-      <c r="CA5" s="6" t="s">
-        <v>649</v>
-      </c>
-      <c r="CC5" s="6" t="s">
-        <v>667</v>
-      </c>
-      <c r="CE5" s="6" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="6" spans="1:84" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="N6" s="2"/>
-      <c r="O6" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q6" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="S6" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="U6" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="W6" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="Y6" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA6" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="AC6" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="AE6" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="AG6" s="6" t="s">
-        <v>293</v>
-      </c>
-      <c r="AI6" s="6" t="s">
-        <v>313</v>
-      </c>
-      <c r="AK6" s="6" t="s">
-        <v>327</v>
-      </c>
-      <c r="AM6" s="6" t="s">
-        <v>380</v>
-      </c>
-      <c r="AO6" s="6" t="s">
-        <v>358</v>
-      </c>
-      <c r="AQ6" s="6" t="s">
-        <v>359</v>
-      </c>
-      <c r="AS6" s="6" t="s">
-        <v>407</v>
-      </c>
-      <c r="AU6" s="6" t="s">
-        <v>396</v>
-      </c>
-      <c r="AW6" s="6" t="s">
-        <v>426</v>
-      </c>
-      <c r="AY6" s="6" t="s">
-        <v>437</v>
-      </c>
-      <c r="BA6" s="6" t="s">
-        <v>450</v>
-      </c>
-      <c r="BC6" s="6" t="s">
-        <v>497</v>
-      </c>
-      <c r="BE6" s="6" t="s">
-        <v>461</v>
-      </c>
-      <c r="BG6" s="6" t="s">
-        <v>470</v>
-      </c>
-      <c r="BI6" s="6" t="s">
-        <v>482</v>
-      </c>
-      <c r="BK6" s="6" t="s">
-        <v>490</v>
-      </c>
-      <c r="BM6" s="6" t="s">
-        <v>513</v>
-      </c>
-      <c r="BO6" s="6" t="s">
-        <v>548</v>
-      </c>
-      <c r="BQ6" s="6" t="s">
-        <v>540</v>
-      </c>
-      <c r="BS6" s="6" t="s">
-        <v>571</v>
-      </c>
-      <c r="BU6" s="6" t="s">
-        <v>597</v>
-      </c>
-      <c r="BW6" s="6" t="s">
-        <v>612</v>
-      </c>
-      <c r="BY6" s="6" t="s">
-        <v>642</v>
-      </c>
-      <c r="CA6" s="6" t="s">
-        <v>654</v>
-      </c>
-      <c r="CC6" s="6" t="s">
-        <v>668</v>
-      </c>
-      <c r="CE6" s="6" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="7" spans="1:84" s="6" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
+    <row r="8" spans="1:85" s="6" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="P7" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="BO7" s="6" t="s">
-        <v>554</v>
-      </c>
-      <c r="BP7" s="6" t="s">
-        <v>555</v>
-      </c>
-      <c r="BW7" s="6" t="s">
-        <v>630</v>
-      </c>
-      <c r="BX7" s="6" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="8" spans="1:84" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
@@ -4111,521 +4573,535 @@
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
-      <c r="O8" s="2" t="s">
+      <c r="O8" s="2"/>
+      <c r="P8" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q8" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="BP8" s="6" t="s">
+        <v>538</v>
+      </c>
+      <c r="BQ8" s="6" t="s">
+        <v>539</v>
+      </c>
+      <c r="BX8" s="6" t="s">
+        <v>614</v>
+      </c>
+      <c r="BY8" s="6" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="9" spans="1:85" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q9" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="AB9" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="AC9" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="AL9" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="AM9" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="AR9" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="AS9" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="AT9" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="AU9" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="AZ9" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="BA9" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="BD9" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="BE9" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="BP9" s="6" t="s">
+        <v>533</v>
+      </c>
+      <c r="BQ9" s="6" t="s">
+        <v>534</v>
+      </c>
+      <c r="BX9" s="6" t="s">
+        <v>598</v>
+      </c>
+      <c r="BY9" s="6" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="10" spans="1:85" s="6" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="R10" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="S10" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="T10" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="U10" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="V10" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="W10" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="X10" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="Y10" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="Z10" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="AA10" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="AD10" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="AE10" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="AF10" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="AG10" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="AH10" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="AI10" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="AJ10" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="AK10" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="AL10" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="AM10" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="AN10" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="AO10" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="AV10" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="AW10" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="AX10" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="AY10" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="BB10" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="BC10" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="BH10" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="BI10" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="BJ10" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="BK10" s="6" t="s">
+        <v>467</v>
+      </c>
+      <c r="BL10" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="BM10" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="BN10" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="BO10" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="BR10" s="6" t="s">
+        <v>525</v>
+      </c>
+      <c r="BS10" s="6" t="s">
+        <v>526</v>
+      </c>
+      <c r="BT10" s="6" t="s">
+        <v>567</v>
+      </c>
+      <c r="BU10" s="6" t="s">
+        <v>568</v>
+      </c>
+      <c r="BV10" s="6" t="s">
+        <v>583</v>
+      </c>
+      <c r="BW10" s="6" t="s">
+        <v>584</v>
+      </c>
+      <c r="BZ10" s="6" t="s">
+        <v>628</v>
+      </c>
+      <c r="CA10" s="6" t="s">
+        <v>629</v>
+      </c>
+      <c r="CB10" s="6" t="s">
+        <v>628</v>
+      </c>
+      <c r="CC10" s="6" t="s">
+        <v>639</v>
+      </c>
+      <c r="CD10" s="6" t="s">
+        <v>655</v>
+      </c>
+      <c r="CE10" s="6" t="s">
+        <v>656</v>
+      </c>
+      <c r="CF10" s="6" t="s">
+        <v>665</v>
+      </c>
+      <c r="CG10" s="6" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="11" spans="1:85" s="6" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>673</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="P8" s="6" t="s">
+      <c r="H11" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="I11" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="AA8" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="AB8" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="AK8" s="6" t="s">
-        <v>337</v>
-      </c>
-      <c r="AL8" s="6" t="s">
-        <v>338</v>
-      </c>
-      <c r="AQ8" s="6" t="s">
-        <v>373</v>
-      </c>
-      <c r="AR8" s="6" t="s">
-        <v>365</v>
-      </c>
-      <c r="AS8" s="6" t="s">
-        <v>409</v>
-      </c>
-      <c r="AT8" s="6" t="s">
-        <v>410</v>
-      </c>
-      <c r="AY8" s="6" t="s">
+      <c r="J11" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="R11" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="S11" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="T11" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="U11" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="V11" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="W11" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="X11" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="Y11" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="Z11" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="AA11" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="AB11" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="AC11" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="AD11" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="AE11" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="AF11" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="AG11" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="AH11" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="AI11" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="AJ11" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="AK11" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="AL11" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="AM11" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="AN11" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="AO11" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="AP11" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="AQ11" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="AR11" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="AS11" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="AT11" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="AU11" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="AV11" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="AW11" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="AX11" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="AY11" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="AZ11" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="BA11" s="6" t="s">
+        <v>428</v>
+      </c>
+      <c r="BB11" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="BC11" s="6" t="s">
         <v>438</v>
       </c>
-      <c r="AZ8" s="6" t="s">
-        <v>439</v>
-      </c>
-      <c r="BC8" s="6" t="s">
-        <v>499</v>
-      </c>
-      <c r="BD8" s="6" t="s">
-        <v>500</v>
-      </c>
-      <c r="BO8" s="6" t="s">
+      <c r="BD11" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="BE11" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="BF11" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="BG11" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="BH11" s="6" t="s">
+        <v>460</v>
+      </c>
+      <c r="BI11" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="BJ11" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="BK11" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="BL11" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="BM11" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="BN11" s="6" t="s">
+        <v>510</v>
+      </c>
+      <c r="BO11" s="6" t="s">
+        <v>511</v>
+      </c>
+      <c r="BP11" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="BQ11" s="6" t="s">
         <v>549</v>
       </c>
-      <c r="BP8" s="6" t="s">
-        <v>550</v>
-      </c>
-      <c r="BW8" s="6" t="s">
-        <v>614</v>
-      </c>
-      <c r="BX8" s="6" t="s">
-        <v>615</v>
+      <c r="BT11" s="6" t="s">
+        <v>573</v>
+      </c>
+      <c r="BU11" s="6" t="s">
+        <v>574</v>
+      </c>
+      <c r="BV11" s="6" t="s">
+        <v>587</v>
+      </c>
+      <c r="BW11" s="6" t="s">
+        <v>588</v>
+      </c>
+      <c r="BX11" s="6" t="s">
+        <v>618</v>
+      </c>
+      <c r="BY11" s="6" t="s">
+        <v>619</v>
+      </c>
+      <c r="BZ11" s="6" t="s">
+        <v>630</v>
+      </c>
+      <c r="CA11" s="6" t="s">
+        <v>631</v>
+      </c>
+      <c r="CB11" s="6" t="s">
+        <v>644</v>
+      </c>
+      <c r="CC11" s="6" t="s">
+        <v>645</v>
+      </c>
+      <c r="CD11" s="6" t="s">
+        <v>674</v>
+      </c>
+      <c r="CE11" s="6" t="s">
+        <v>675</v>
+      </c>
+      <c r="CF11" s="6" t="s">
+        <v>676</v>
+      </c>
+      <c r="CG11" s="6" t="s">
+        <v>677</v>
       </c>
     </row>
-    <row r="9" spans="1:84" s="6" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q9" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="R9" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="S9" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="T9" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="U9" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="V9" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="W9" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="X9" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="Y9" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="Z9" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="AC9" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="AD9" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="AE9" s="6" t="s">
-        <v>300</v>
-      </c>
-      <c r="AF9" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="AG9" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="AH9" s="6" t="s">
-        <v>288</v>
-      </c>
-      <c r="AI9" s="6" t="s">
-        <v>315</v>
-      </c>
-      <c r="AJ9" s="6" t="s">
-        <v>316</v>
-      </c>
-      <c r="AK9" s="6" t="s">
-        <v>334</v>
-      </c>
-      <c r="AL9" s="6" t="s">
-        <v>340</v>
-      </c>
-      <c r="AM9" s="6" t="s">
-        <v>382</v>
-      </c>
-      <c r="AN9" s="6" t="s">
-        <v>383</v>
-      </c>
-      <c r="AU9" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="AV9" s="6" t="s">
-        <v>398</v>
-      </c>
-      <c r="AW9" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="AX9" s="6" t="s">
-        <v>427</v>
-      </c>
-      <c r="BA9" s="6" t="s">
-        <v>451</v>
-      </c>
-      <c r="BB9" s="6" t="s">
-        <v>452</v>
-      </c>
-      <c r="BG9" s="6" t="s">
-        <v>471</v>
-      </c>
-      <c r="BH9" s="6" t="s">
-        <v>472</v>
-      </c>
-      <c r="BI9" s="6" t="s">
-        <v>471</v>
-      </c>
-      <c r="BJ9" s="6" t="s">
-        <v>483</v>
-      </c>
-      <c r="BK9" s="6" t="s">
-        <v>471</v>
-      </c>
-      <c r="BL9" s="6" t="s">
-        <v>491</v>
-      </c>
-      <c r="BM9" s="6" t="s">
-        <v>514</v>
-      </c>
-      <c r="BN9" s="6" t="s">
-        <v>515</v>
-      </c>
-      <c r="BQ9" s="6" t="s">
-        <v>541</v>
-      </c>
-      <c r="BR9" s="6" t="s">
-        <v>542</v>
-      </c>
-      <c r="BS9" s="6" t="s">
-        <v>583</v>
-      </c>
-      <c r="BT9" s="6" t="s">
-        <v>584</v>
-      </c>
-      <c r="BU9" s="6" t="s">
-        <v>599</v>
-      </c>
-      <c r="BV9" s="6" t="s">
-        <v>600</v>
-      </c>
-      <c r="BY9" s="6" t="s">
-        <v>645</v>
-      </c>
-      <c r="BZ9" s="6" t="s">
-        <v>646</v>
-      </c>
-      <c r="CA9" s="6" t="s">
-        <v>645</v>
-      </c>
-      <c r="CB9" s="6" t="s">
-        <v>656</v>
-      </c>
-      <c r="CC9" s="6" t="s">
-        <v>672</v>
-      </c>
-      <c r="CD9" s="6" t="s">
-        <v>673</v>
-      </c>
-      <c r="CE9" s="6" t="s">
-        <v>682</v>
-      </c>
-      <c r="CF9" s="6" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="10" spans="1:84" s="6" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>690</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="N10" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="O10" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="P10" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q10" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="R10" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="S10" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="T10" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="U10" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="V10" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="W10" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="X10" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="Y10" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="Z10" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="AA10" s="6" t="s">
-        <v>257</v>
-      </c>
-      <c r="AB10" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="AC10" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="AD10" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="AE10" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="AF10" s="6" t="s">
-        <v>306</v>
-      </c>
-      <c r="AG10" s="6" t="s">
-        <v>324</v>
-      </c>
-      <c r="AH10" s="6" t="s">
-        <v>323</v>
-      </c>
-      <c r="AI10" s="6" t="s">
-        <v>325</v>
-      </c>
-      <c r="AJ10" s="6" t="s">
-        <v>326</v>
-      </c>
-      <c r="AK10" s="6" t="s">
-        <v>329</v>
-      </c>
-      <c r="AL10" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="AM10" s="6" t="s">
-        <v>390</v>
-      </c>
-      <c r="AN10" s="6" t="s">
-        <v>391</v>
-      </c>
-      <c r="AO10" s="6" t="s">
-        <v>353</v>
-      </c>
-      <c r="AP10" s="6" t="s">
-        <v>354</v>
-      </c>
-      <c r="AQ10" s="6" t="s">
-        <v>371</v>
-      </c>
-      <c r="AR10" s="6" t="s">
-        <v>372</v>
-      </c>
-      <c r="AS10" s="6" t="s">
-        <v>419</v>
-      </c>
-      <c r="AT10" s="6" t="s">
-        <v>420</v>
-      </c>
-      <c r="AU10" s="6" t="s">
-        <v>399</v>
-      </c>
-      <c r="AV10" s="6" t="s">
-        <v>418</v>
-      </c>
-      <c r="AW10" s="6" t="s">
-        <v>430</v>
-      </c>
-      <c r="AX10" s="6" t="s">
-        <v>431</v>
-      </c>
-      <c r="AY10" s="6" t="s">
-        <v>443</v>
-      </c>
-      <c r="AZ10" s="6" t="s">
-        <v>444</v>
-      </c>
-      <c r="BA10" s="6" t="s">
-        <v>453</v>
-      </c>
-      <c r="BB10" s="6" t="s">
-        <v>454</v>
-      </c>
-      <c r="BC10" s="6" t="s">
-        <v>505</v>
-      </c>
-      <c r="BD10" s="6" t="s">
-        <v>506</v>
-      </c>
-      <c r="BE10" s="6" t="s">
-        <v>462</v>
-      </c>
-      <c r="BF10" s="6" t="s">
-        <v>463</v>
-      </c>
-      <c r="BG10" s="6" t="s">
-        <v>476</v>
-      </c>
-      <c r="BH10" s="6" t="s">
-        <v>477</v>
-      </c>
-      <c r="BI10" s="6" t="s">
-        <v>484</v>
-      </c>
-      <c r="BJ10" s="6" t="s">
-        <v>485</v>
-      </c>
-      <c r="BK10" s="6" t="s">
-        <v>495</v>
-      </c>
-      <c r="BL10" s="6" t="s">
-        <v>496</v>
-      </c>
-      <c r="BM10" s="6" t="s">
-        <v>526</v>
-      </c>
-      <c r="BN10" s="6" t="s">
-        <v>527</v>
-      </c>
-      <c r="BO10" s="6" t="s">
-        <v>564</v>
-      </c>
-      <c r="BP10" s="6" t="s">
-        <v>565</v>
-      </c>
-      <c r="BS10" s="6" t="s">
-        <v>589</v>
-      </c>
-      <c r="BT10" s="6" t="s">
-        <v>590</v>
-      </c>
-      <c r="BU10" s="6" t="s">
-        <v>603</v>
-      </c>
-      <c r="BV10" s="6" t="s">
-        <v>604</v>
-      </c>
-      <c r="BW10" s="6" t="s">
-        <v>634</v>
-      </c>
-      <c r="BX10" s="6" t="s">
-        <v>635</v>
-      </c>
-      <c r="BY10" s="6" t="s">
-        <v>647</v>
-      </c>
-      <c r="BZ10" s="6" t="s">
-        <v>648</v>
-      </c>
-      <c r="CA10" s="6" t="s">
-        <v>661</v>
-      </c>
-      <c r="CB10" s="6" t="s">
-        <v>662</v>
-      </c>
-      <c r="CC10" s="6" t="s">
-        <v>691</v>
-      </c>
-      <c r="CD10" s="6" t="s">
-        <v>692</v>
-      </c>
-      <c r="CE10" s="6" t="s">
-        <v>693</v>
-      </c>
-      <c r="CF10" s="6" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="11" spans="1:84" s="6" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
+    <row r="12" spans="1:85" s="6" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="F12" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="G12" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-    </row>
-    <row r="12" spans="1:84" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
@@ -4633,422 +5109,407 @@
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
-      <c r="AK12" s="6" t="s">
-        <v>339</v>
-      </c>
-      <c r="AL12" s="6" t="s">
-        <v>338</v>
-      </c>
+      <c r="O12" s="2"/>
     </row>
-    <row r="13" spans="1:84" s="6" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:85" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>173</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
-      <c r="Q13" s="6" t="s">
+      <c r="O13" s="2"/>
+      <c r="AL13" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="AM13" s="6" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="14" spans="1:85" s="6" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H14" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="R13" s="6" t="s">
+      <c r="I14" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="Y13" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="Z13" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="AC13" s="6" t="s">
-        <v>274</v>
-      </c>
-      <c r="AD13" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="AM13" s="6" t="s">
-        <v>386</v>
-      </c>
-      <c r="AN13" s="6" t="s">
-        <v>387</v>
-      </c>
-      <c r="AY13" s="6" t="s">
-        <v>441</v>
-      </c>
-      <c r="AZ13" s="6" t="s">
-        <v>442</v>
-      </c>
-      <c r="BS13" s="6" t="s">
-        <v>585</v>
-      </c>
-      <c r="BT13" s="6" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="14" spans="1:84" s="6" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
-      <c r="BO14" s="6" t="s">
-        <v>560</v>
-      </c>
-      <c r="BP14" s="6" t="s">
-        <v>561</v>
+      <c r="O14" s="2"/>
+      <c r="R14" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="S14" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="Z14" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="AA14" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="AD14" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="AE14" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="AN14" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="AO14" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="AZ14" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="BA14" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="BT14" s="6" t="s">
+        <v>569</v>
+      </c>
+      <c r="BU14" s="6" t="s">
+        <v>570</v>
       </c>
     </row>
-    <row r="15" spans="1:84" s="6" customFormat="1" ht="114" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:85" s="6" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
+        <v>9</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="G15" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>78</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
-      <c r="Q15" s="6" t="s">
-        <v>573</v>
-      </c>
-      <c r="R15" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="Y15" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="Z15" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="AC15" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="AD15" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="AG15" s="6" t="s">
-        <v>296</v>
-      </c>
-      <c r="AH15" s="6" t="s">
-        <v>294</v>
-      </c>
-      <c r="AK15" s="6" t="s">
-        <v>321</v>
-      </c>
-      <c r="AL15" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="AU15" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="AV15" s="6" t="s">
-        <v>404</v>
-      </c>
-      <c r="BO15" s="6" t="s">
-        <v>562</v>
-      </c>
+      <c r="O15" s="2"/>
       <c r="BP15" s="6" t="s">
-        <v>563</v>
-      </c>
-      <c r="BS15" s="6" t="s">
-        <v>587</v>
-      </c>
-      <c r="BT15" s="6" t="s">
-        <v>588</v>
-      </c>
-      <c r="BW15" s="6" t="s">
-        <v>617</v>
-      </c>
-      <c r="BX15" s="6" t="s">
-        <v>616</v>
+        <v>544</v>
+      </c>
+      <c r="BQ15" s="6" t="s">
+        <v>545</v>
       </c>
     </row>
-    <row r="16" spans="1:84" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="7"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
+    <row r="16" spans="1:85" s="6" customFormat="1" ht="110.4" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="R16" s="6" t="s">
+        <v>557</v>
+      </c>
+      <c r="S16" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="Z16" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="AA16" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="AD16" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="AE16" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="AH16" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="AI16" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="AL16" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="AM16" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="AV16" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="AW16" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="BP16" s="6" t="s">
+        <v>546</v>
+      </c>
+      <c r="BQ16" s="6" t="s">
+        <v>547</v>
+      </c>
+      <c r="BT16" s="6" t="s">
+        <v>571</v>
+      </c>
+      <c r="BU16" s="6" t="s">
+        <v>572</v>
+      </c>
+      <c r="BX16" s="6" t="s">
+        <v>601</v>
+      </c>
+      <c r="BY16" s="6" t="s">
+        <v>600</v>
+      </c>
     </row>
-    <row r="17" spans="1:84" s="6" customFormat="1" ht="57" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="P17" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="Y17" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="Z17" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="AC17" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="AD17" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="AG17" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="AH17" s="6" t="s">
-        <v>290</v>
-      </c>
-      <c r="AK17" s="6" t="s">
-        <v>335</v>
-      </c>
-      <c r="AL17" s="6" t="s">
-        <v>336</v>
-      </c>
-      <c r="AM17" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="AN17" s="6" t="s">
-        <v>385</v>
-      </c>
-      <c r="AQ17" s="6" t="s">
-        <v>355</v>
-      </c>
-      <c r="AR17" s="6" t="s">
-        <v>356</v>
-      </c>
-      <c r="BO17" s="6" t="s">
-        <v>551</v>
-      </c>
-      <c r="BP17" s="6" t="s">
-        <v>553</v>
-      </c>
-      <c r="BS17" s="6" t="s">
-        <v>577</v>
-      </c>
-      <c r="BT17" s="6" t="s">
-        <v>578</v>
-      </c>
-      <c r="BU17" s="6" t="s">
-        <v>601</v>
-      </c>
-      <c r="BV17" s="6" t="s">
-        <v>602</v>
-      </c>
-      <c r="BW17" s="6" t="s">
-        <v>626</v>
-      </c>
-      <c r="BX17" s="6" t="s">
-        <v>627</v>
-      </c>
+    <row r="17" spans="1:85" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
     </row>
-    <row r="18" spans="1:84" s="6" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:85" s="6" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
+        <v>48</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>219</v>
+      </c>
       <c r="I18" s="2" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="K18" s="2"/>
+        <v>86</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>87</v>
+      </c>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
-      <c r="O18" s="6" t="s">
+      <c r="O18" s="2"/>
+      <c r="P18" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q18" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="P18" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="Y18" s="6" t="s">
-        <v>212</v>
-      </c>
       <c r="Z18" s="6" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="AA18" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="AB18" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="BM18" s="6" t="s">
-        <v>522</v>
-      </c>
-      <c r="BN18" s="6" t="s">
-        <v>523</v>
-      </c>
-      <c r="BS18" s="6" t="s">
-        <v>579</v>
+        <v>223</v>
+      </c>
+      <c r="AD18" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="AE18" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="AH18" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="AI18" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="AL18" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="AM18" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="AN18" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="AO18" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="AR18" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="AS18" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="BP18" s="6" t="s">
+        <v>535</v>
+      </c>
+      <c r="BQ18" s="6" t="s">
+        <v>537</v>
       </c>
       <c r="BT18" s="6" t="s">
-        <v>580</v>
+        <v>561</v>
+      </c>
+      <c r="BU18" s="6" t="s">
+        <v>562</v>
+      </c>
+      <c r="BV18" s="6" t="s">
+        <v>585</v>
       </c>
       <c r="BW18" s="6" t="s">
-        <v>622</v>
+        <v>586</v>
       </c>
       <c r="BX18" s="6" t="s">
-        <v>623</v>
+        <v>610</v>
+      </c>
+      <c r="BY18" s="6" t="s">
+        <v>611</v>
       </c>
     </row>
-    <row r="19" spans="1:84" s="6" customFormat="1" ht="57" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:85" s="6" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>331</v>
-      </c>
-      <c r="E19" s="2"/>
+        <v>88</v>
+      </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
+      <c r="J19" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>90</v>
+      </c>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
-      <c r="AK19" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="AL19" s="6" t="s">
-        <v>332</v>
-      </c>
-      <c r="AS19" s="6" t="s">
-        <v>412</v>
-      </c>
-      <c r="AT19" s="6" t="s">
-        <v>413</v>
-      </c>
-      <c r="BW19" s="6" t="s">
-        <v>628</v>
+      <c r="O19" s="2"/>
+      <c r="P19" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q19" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="Z19" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="AA19" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="AB19" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="AC19" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="BN19" s="6" t="s">
+        <v>506</v>
+      </c>
+      <c r="BO19" s="6" t="s">
+        <v>507</v>
+      </c>
+      <c r="BT19" s="6" t="s">
+        <v>563</v>
+      </c>
+      <c r="BU19" s="6" t="s">
+        <v>564</v>
       </c>
       <c r="BX19" s="6" t="s">
-        <v>629</v>
+        <v>606</v>
+      </c>
+      <c r="BY19" s="6" t="s">
+        <v>607</v>
       </c>
     </row>
-    <row r="20" spans="1:84" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="7"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
+    <row r="20" spans="1:85" s="6" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="AL20" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="AM20" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="AT20" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="AU20" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="BX20" s="6" t="s">
+        <v>612</v>
+      </c>
+      <c r="BY20" s="6" t="s">
+        <v>613</v>
+      </c>
     </row>
-    <row r="21" spans="1:84" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F21" s="2" t="s">
+    <row r="21" spans="1:85" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="7"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="1:85" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G22" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="Y21" s="6" t="s">
-        <v>268</v>
-      </c>
-      <c r="Z21" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="AE21" s="6" t="s">
-        <v>299</v>
-      </c>
-      <c r="AI21" s="6" t="s">
-        <v>317</v>
-      </c>
-      <c r="AJ21" s="6" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="22" spans="1:84" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
@@ -5056,236 +5517,251 @@
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="Z22" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="AA22" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="AF22" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="AJ22" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="AK22" s="6" t="s">
+        <v>306</v>
+      </c>
     </row>
-    <row r="23" spans="1:84" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:85" s="6" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+    </row>
+    <row r="24" spans="1:85" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E23" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2" t="s">
+      <c r="I24" s="2"/>
+      <c r="J24" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="N23" s="2"/>
-      <c r="O23" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q23" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="S23" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="Y23" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="AA23" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="AC23" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="AE23" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="AG23" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="AI23" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="AK23" s="6" t="s">
-        <v>574</v>
-      </c>
-      <c r="AM23" s="6" t="s">
-        <v>344</v>
-      </c>
-      <c r="AQ23" s="6" t="s">
-        <v>362</v>
-      </c>
-      <c r="AS23" s="6" t="s">
-        <v>378</v>
-      </c>
-      <c r="AU23" s="6" t="s">
-        <v>395</v>
-      </c>
-      <c r="AW23" s="6" t="s">
-        <v>378</v>
-      </c>
-      <c r="AY23" s="6" t="s">
-        <v>374</v>
-      </c>
-      <c r="BA23" s="6" t="s">
-        <v>436</v>
-      </c>
-      <c r="BC23" s="6" t="s">
-        <v>449</v>
-      </c>
-      <c r="BE23" s="6" t="s">
-        <v>460</v>
-      </c>
-      <c r="BG23" s="6" t="s">
-        <v>466</v>
-      </c>
-      <c r="BI23" s="6" t="s">
-        <v>481</v>
-      </c>
-      <c r="BK23" s="6" t="s">
-        <v>492</v>
-      </c>
-      <c r="BM23" s="6" t="s">
-        <v>512</v>
-      </c>
-      <c r="BO23" s="6" t="s">
-        <v>533</v>
-      </c>
-      <c r="BQ23" s="6" t="s">
-        <v>536</v>
-      </c>
-      <c r="BS23" s="6" t="s">
-        <v>570</v>
-      </c>
-      <c r="BU23" s="6" t="s">
-        <v>596</v>
-      </c>
-      <c r="BW23" s="6" t="s">
-        <v>611</v>
-      </c>
-      <c r="BY23" s="6" t="s">
-        <v>643</v>
-      </c>
-      <c r="CA23" s="6" t="s">
+      <c r="K24" s="2"/>
+      <c r="L24" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="O24" s="2"/>
+      <c r="P24" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="R24" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="T24" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="Z24" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="AB24" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="AD24" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="AF24" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="AH24" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="AJ24" s="6" t="s">
+        <v>752</v>
+      </c>
+      <c r="AL24" s="6" t="s">
+        <v>558</v>
+      </c>
+      <c r="AN24" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="AR24" s="6" t="s">
+        <v>705</v>
+      </c>
+      <c r="AT24" s="6" t="s">
+        <v>753</v>
+      </c>
+      <c r="AV24" s="6" t="s">
+        <v>755</v>
+      </c>
+      <c r="AX24" s="6" t="s">
+        <v>754</v>
+      </c>
+      <c r="AZ24" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="BB24" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="BD24" s="6" t="s">
+        <v>433</v>
+      </c>
+      <c r="BF24" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="BH24" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="BJ24" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="BL24" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="BN24" s="6" t="s">
+        <v>496</v>
+      </c>
+      <c r="BP24" s="6" t="s">
+        <v>517</v>
+      </c>
+      <c r="BR24" s="6" t="s">
+        <v>520</v>
+      </c>
+      <c r="BT24" s="6" t="s">
+        <v>554</v>
+      </c>
+      <c r="BV24" s="6" t="s">
+        <v>580</v>
+      </c>
+      <c r="BX24" s="6" t="s">
+        <v>595</v>
+      </c>
+      <c r="BZ24" s="6" t="s">
+        <v>626</v>
+      </c>
+      <c r="CB24" s="6" t="s">
+        <v>636</v>
+      </c>
+      <c r="CD24" s="6" t="s">
         <v>653</v>
       </c>
-      <c r="CC23" s="6" t="s">
-        <v>670</v>
-      </c>
     </row>
-    <row r="24" spans="1:84" s="6" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="4" t="s">
+    <row r="25" spans="1:85" s="6" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E24" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="N24" s="2"/>
-      <c r="AA24" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="AC24" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="AG24" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="AI24" s="6" t="s">
-        <v>314</v>
-      </c>
-      <c r="AQ24" s="6" t="s">
-        <v>361</v>
-      </c>
-      <c r="AS24" s="6" t="s">
-        <v>408</v>
-      </c>
-      <c r="BC24" s="6" t="s">
-        <v>498</v>
-      </c>
-      <c r="BO24" s="6" t="s">
-        <v>547</v>
-      </c>
-      <c r="BS24" s="6" t="s">
-        <v>572</v>
-      </c>
-      <c r="BU24" s="6" t="s">
-        <v>598</v>
-      </c>
-      <c r="BW24" s="6" t="s">
-        <v>613</v>
-      </c>
-      <c r="BY24" s="6" t="s">
-        <v>644</v>
-      </c>
-      <c r="CA24" s="6" t="s">
-        <v>655</v>
-      </c>
-      <c r="CC24" s="6" t="s">
-        <v>671</v>
-      </c>
-      <c r="CE24" s="6" t="s">
-        <v>644</v>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="O25" s="2"/>
+      <c r="AB25" s="6" t="s">
+        <v>690</v>
+      </c>
+      <c r="AD25" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="AH25" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="AJ25" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="AR25" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="AT25" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="BD25" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="BP25" s="6" t="s">
+        <v>531</v>
+      </c>
+      <c r="BT25" s="6" t="s">
+        <v>556</v>
+      </c>
+      <c r="BV25" s="6" t="s">
+        <v>582</v>
+      </c>
+      <c r="BX25" s="6" t="s">
+        <v>597</v>
+      </c>
+      <c r="BZ25" s="6" t="s">
+        <v>627</v>
+      </c>
+      <c r="CB25" s="6" t="s">
+        <v>638</v>
+      </c>
+      <c r="CD25" s="6" t="s">
+        <v>654</v>
+      </c>
+      <c r="CF25" s="6" t="s">
+        <v>627</v>
       </c>
     </row>
-    <row r="25" spans="1:84" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="7"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
+    <row r="26" spans="1:85" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="7"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
     </row>
-    <row r="26" spans="1:84" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="4" t="s">
+    <row r="27" spans="1:85" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="F27" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="G27" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
-    </row>
-    <row r="27" spans="1:84" s="6" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A27" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G27" s="2"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
@@ -5293,60 +5769,18 @@
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
-      <c r="AQ27" s="6" t="s">
-        <v>367</v>
-      </c>
-      <c r="AR27" s="6" t="s">
-        <v>368</v>
-      </c>
-      <c r="AS27" s="6" t="s">
-        <v>416</v>
-      </c>
-      <c r="AT27" s="6" t="s">
-        <v>417</v>
-      </c>
-      <c r="BC27" s="6" t="s">
-        <v>502</v>
-      </c>
-      <c r="BD27" s="6" t="s">
-        <v>501</v>
-      </c>
-      <c r="BM27" s="6" t="s">
-        <v>524</v>
-      </c>
-      <c r="BN27" s="6" t="s">
-        <v>525</v>
-      </c>
-      <c r="BS27" s="6" t="s">
-        <v>581</v>
-      </c>
-      <c r="BT27" s="6" t="s">
-        <v>582</v>
-      </c>
-      <c r="BW27" s="6" t="s">
-        <v>624</v>
-      </c>
-      <c r="BX27" s="6" t="s">
-        <v>625</v>
-      </c>
-      <c r="CE27" s="6" t="s">
-        <v>686</v>
-      </c>
-      <c r="CF27" s="6" t="s">
-        <v>687</v>
-      </c>
+      <c r="O27" s="2"/>
     </row>
-    <row r="28" spans="1:84" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:85" s="6" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G28" s="2"/>
+        <v>23</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
@@ -5354,409 +5788,452 @@
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="AR28" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="AS28" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="AT28" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="AU28" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="BD28" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="BE28" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="BN28" s="6" t="s">
+        <v>508</v>
+      </c>
+      <c r="BO28" s="6" t="s">
+        <v>509</v>
+      </c>
+      <c r="BT28" s="6" t="s">
+        <v>565</v>
+      </c>
+      <c r="BU28" s="6" t="s">
+        <v>566</v>
+      </c>
+      <c r="BX28" s="6" t="s">
+        <v>608</v>
+      </c>
+      <c r="BY28" s="6" t="s">
+        <v>609</v>
+      </c>
+      <c r="CF28" s="6" t="s">
+        <v>669</v>
+      </c>
+      <c r="CG28" s="6" t="s">
+        <v>670</v>
+      </c>
     </row>
-    <row r="29" spans="1:84" s="6" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:85" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>77</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="H29" s="2"/>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
-      <c r="O29" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="P29" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="AA29" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="AB29" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="AQ29" s="6" t="s">
-        <v>364</v>
-      </c>
-      <c r="AR29" s="6" t="s">
-        <v>366</v>
-      </c>
-      <c r="AS29" s="6" t="s">
-        <v>364</v>
-      </c>
-      <c r="AT29" s="6" t="s">
-        <v>411</v>
-      </c>
-      <c r="AY29" s="6" t="s">
-        <v>364</v>
-      </c>
-      <c r="AZ29" s="6" t="s">
-        <v>440</v>
-      </c>
-      <c r="BC29" s="6" t="s">
-        <v>364</v>
-      </c>
-      <c r="BD29" s="6" t="s">
-        <v>501</v>
-      </c>
-      <c r="BM29" s="6" t="s">
-        <v>516</v>
-      </c>
-      <c r="BN29" s="6" t="s">
-        <v>517</v>
-      </c>
-      <c r="BO29" s="6" t="s">
-        <v>552</v>
-      </c>
-      <c r="BP29" s="6" t="s">
-        <v>553</v>
-      </c>
-      <c r="BS29" s="6" t="s">
-        <v>575</v>
-      </c>
-      <c r="BT29" s="6" t="s">
-        <v>576</v>
-      </c>
-      <c r="BW29" s="6" t="s">
-        <v>620</v>
-      </c>
-      <c r="BX29" s="6" t="s">
-        <v>621</v>
-      </c>
+      <c r="O29" s="2"/>
     </row>
-    <row r="30" spans="1:84" s="6" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:85" s="6" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
+        <v>51</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q30" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="AB30" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="AC30" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="AR30" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="AS30" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="AT30" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="AU30" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="AZ30" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="BA30" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="BD30" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="BE30" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="BN30" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="BO30" s="6" t="s">
+        <v>501</v>
+      </c>
+      <c r="BP30" s="6" t="s">
+        <v>536</v>
+      </c>
+      <c r="BQ30" s="6" t="s">
+        <v>537</v>
+      </c>
+      <c r="BT30" s="6" t="s">
+        <v>559</v>
+      </c>
+      <c r="BU30" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="BX30" s="6" t="s">
+        <v>604</v>
+      </c>
+      <c r="BY30" s="6" t="s">
+        <v>605</v>
+      </c>
     </row>
-    <row r="31" spans="1:84" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="7"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
-      <c r="N31" s="3"/>
+    <row r="31" spans="1:85" s="6" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
     </row>
-    <row r="32" spans="1:84" s="6" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A32" s="4" t="s">
+    <row r="32" spans="1:85" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="7"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="1:85" s="6" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="F33" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F32" s="2" t="s">
+      <c r="G33" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="J32" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
-      <c r="BW32" s="6" t="s">
-        <v>618</v>
-      </c>
-      <c r="BX32" s="6" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="33" spans="1:84" s="6" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A33" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G33" s="2"/>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
+      <c r="J33" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
-      <c r="Y33" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="Z33" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="AA33" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="AB33" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="AC33" s="6" t="s">
-        <v>270</v>
-      </c>
-      <c r="AD33" s="6" t="s">
-        <v>271</v>
-      </c>
-      <c r="AE33" s="6" t="s">
-        <v>304</v>
-      </c>
-      <c r="AF33" s="6" t="s">
-        <v>305</v>
-      </c>
-      <c r="AG33" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="AH33" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="AI33" s="6" t="s">
-        <v>318</v>
-      </c>
-      <c r="AJ33" s="6" t="s">
-        <v>319</v>
-      </c>
-      <c r="BM33" s="6" t="s">
-        <v>520</v>
-      </c>
-      <c r="BN33" s="6" t="s">
-        <v>521</v>
-      </c>
-      <c r="BO33" s="6" t="s">
-        <v>556</v>
-      </c>
-      <c r="BP33" s="6" t="s">
-        <v>557</v>
-      </c>
-      <c r="BQ33" s="6" t="s">
+      <c r="O33" s="2"/>
+      <c r="BX33" s="6" t="s">
+        <v>602</v>
+      </c>
+      <c r="BY33" s="6" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="34" spans="1:85" s="6" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="Z34" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="AA34" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="AB34" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="AC34" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="AD34" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="AE34" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="AF34" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="AG34" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="AH34" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="AI34" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="AJ34" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="AK34" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="BN34" s="6" t="s">
+        <v>504</v>
+      </c>
+      <c r="BO34" s="6" t="s">
+        <v>505</v>
+      </c>
+      <c r="BP34" s="6" t="s">
+        <v>540</v>
+      </c>
+      <c r="BQ34" s="6" t="s">
+        <v>541</v>
+      </c>
+      <c r="BR34" s="6" t="s">
+        <v>527</v>
+      </c>
+      <c r="BS34" s="6" t="s">
+        <v>528</v>
+      </c>
+      <c r="CB34" s="6" t="s">
+        <v>642</v>
+      </c>
+      <c r="CC34" s="6" t="s">
+        <v>643</v>
+      </c>
+      <c r="CF34" s="6" t="s">
+        <v>667</v>
+      </c>
+      <c r="CG34" s="6" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="35" spans="1:85" s="6" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="M35" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="N35" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="O35" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="P35" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q35" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="Z35" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="AA35" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="AF35" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="AG35" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="AH35" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="AI35" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="AJ35" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="AK35" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="AN35" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="AO35" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="AR35" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="AS35" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="AT35" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="AU35" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="AV35" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="AW35" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="AX35" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="AY35" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="BD35" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="BE35" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="BH35" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="BI35" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="BL35" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="BM35" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="BN35" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="BO35" s="6" t="s">
+        <v>502</v>
+      </c>
+      <c r="BP35" s="6" t="s">
+        <v>542</v>
+      </c>
+      <c r="BQ35" s="6" t="s">
         <v>543</v>
       </c>
-      <c r="BR33" s="6" t="s">
-        <v>544</v>
-      </c>
-      <c r="CA33" s="6" t="s">
-        <v>659</v>
-      </c>
-      <c r="CB33" s="6" t="s">
-        <v>660</v>
-      </c>
-      <c r="CE33" s="6" t="s">
-        <v>684</v>
-      </c>
-      <c r="CF33" s="6" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="34" spans="1:84" s="6" customFormat="1" ht="57" x14ac:dyDescent="0.2">
-      <c r="A34" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="I34" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="J34" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="K34" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="L34" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="M34" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="N34" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="O34" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="P34" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="Y34" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="Z34" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="AE34" s="6" t="s">
-        <v>302</v>
-      </c>
-      <c r="AF34" s="6" t="s">
-        <v>303</v>
-      </c>
-      <c r="AG34" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="AH34" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="AI34" s="6" t="s">
-        <v>320</v>
-      </c>
-      <c r="AJ34" s="6" t="s">
-        <v>319</v>
-      </c>
-      <c r="AM34" s="6" t="s">
-        <v>388</v>
-      </c>
-      <c r="AN34" s="6" t="s">
-        <v>389</v>
-      </c>
-      <c r="AQ34" s="6" t="s">
-        <v>369</v>
-      </c>
-      <c r="AR34" s="6" t="s">
-        <v>370</v>
-      </c>
-      <c r="AS34" s="6" t="s">
-        <v>415</v>
-      </c>
-      <c r="AT34" s="6" t="s">
-        <v>414</v>
-      </c>
-      <c r="AU34" s="6" t="s">
-        <v>405</v>
-      </c>
-      <c r="AV34" s="6" t="s">
-        <v>406</v>
-      </c>
-      <c r="AW34" s="6" t="s">
-        <v>428</v>
-      </c>
-      <c r="AX34" s="6" t="s">
-        <v>429</v>
-      </c>
-      <c r="BC34" s="6" t="s">
-        <v>503</v>
-      </c>
-      <c r="BD34" s="6" t="s">
-        <v>504</v>
-      </c>
-      <c r="BG34" s="6" t="s">
-        <v>473</v>
-      </c>
-      <c r="BH34" s="6" t="s">
-        <v>474</v>
-      </c>
-      <c r="BK34" s="6" t="s">
-        <v>493</v>
-      </c>
-      <c r="BL34" s="6" t="s">
-        <v>494</v>
-      </c>
-      <c r="BM34" s="6" t="s">
-        <v>519</v>
-      </c>
-      <c r="BN34" s="6" t="s">
-        <v>518</v>
-      </c>
-      <c r="BO34" s="6" t="s">
-        <v>558</v>
-      </c>
-      <c r="BP34" s="6" t="s">
-        <v>559</v>
-      </c>
-      <c r="BQ34" s="6" t="s">
-        <v>545</v>
-      </c>
-      <c r="BR34" s="6" t="s">
-        <v>546</v>
-      </c>
-      <c r="BW34" s="6" t="s">
-        <v>633</v>
-      </c>
-      <c r="BX34" s="6" t="s">
-        <v>632</v>
-      </c>
-      <c r="CA34" s="6" t="s">
+      <c r="BR35" s="6" t="s">
+        <v>529</v>
+      </c>
+      <c r="BS35" s="6" t="s">
+        <v>530</v>
+      </c>
+      <c r="BX35" s="6" t="s">
+        <v>617</v>
+      </c>
+      <c r="BY35" s="6" t="s">
+        <v>616</v>
+      </c>
+      <c r="CB35" s="6" t="s">
+        <v>640</v>
+      </c>
+      <c r="CC35" s="6" t="s">
+        <v>641</v>
+      </c>
+      <c r="CD35" s="6" t="s">
         <v>657</v>
       </c>
-      <c r="CB34" s="6" t="s">
+      <c r="CE35" s="6" t="s">
         <v>658</v>
       </c>
-      <c r="CC34" s="6" t="s">
-        <v>674</v>
-      </c>
-      <c r="CD34" s="6" t="s">
-        <v>675</v>
-      </c>
-      <c r="CE34" s="6" t="s">
-        <v>688</v>
-      </c>
-      <c r="CF34" s="6" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="35" spans="1:84" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
+      <c r="CF35" s="6" t="s">
+        <v>671</v>
+      </c>
+      <c r="CG35" s="6" t="s">
+        <v>672</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
